--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B151CF-BE30-4422-BF59-151FE366B362}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E24B4-5EBB-445B-8BB5-3243CAC0F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B社専用" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1548,7 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1623,6 +1624,48 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1673,60 +1716,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1736,6 +1725,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -2107,8 +2117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2143,39 +2153,39 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="66" t="str">
+      <c r="L3" s="48" t="str">
         <f>データ設定用!AF3</f>
         <v>010123</v>
       </c>
-      <c r="M3" s="67"/>
+      <c r="M3" s="49"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="72"/>
+      <c r="C4" s="42"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="73" t="s">
+      <c r="F4" s="43" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="74" t="str">
+      <c r="H4" s="44" t="str">
         <f>データ設定用!H3</f>
         <v>トイコレクターズ事業部</v>
       </c>
-      <c r="I4" s="74"/>
+      <c r="I4" s="44"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.55" customHeight="1">
-      <c r="C5" s="72"/>
+      <c r="C5" s="42"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="73"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
+      <c r="H5" s="44"/>
+      <c r="I5" s="44"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2190,18 +2200,18 @@
         <v>15</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="76">
+      <c r="H6" s="47">
         <f>データ設定用!P3</f>
         <v>43719</v>
       </c>
-      <c r="I6" s="74"/>
-      <c r="J6" s="70" t="s">
+      <c r="I6" s="44"/>
+      <c r="J6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="71"/>
-      <c r="L6" s="71"/>
-      <c r="M6" s="71"/>
-      <c r="N6" s="71"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2211,16 +2221,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="74" t="str">
+      <c r="H7" s="44" t="str">
         <f>データ設定用!R3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="I7" s="74"/>
-      <c r="J7" s="71"/>
-      <c r="K7" s="71"/>
-      <c r="L7" s="71"/>
-      <c r="M7" s="71"/>
-      <c r="N7" s="71"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="55"/>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2243,12 +2253,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="75" t="s">
+      <c r="E9" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2261,10 +2271,10 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="68" t="s">
+      <c r="M9" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="69"/>
+      <c r="N9" s="51"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="10">
@@ -2275,35 +2285,35 @@
         <f>データ設定用!H6</f>
         <v>A00001</v>
       </c>
-      <c r="E10" s="65" t="str">
+      <c r="E10" s="45" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v>製品名1
 本荷　備考1</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="65"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="10">
+      <c r="F10" s="45"/>
+      <c r="G10" s="45"/>
+      <c r="H10" s="45"/>
+      <c r="I10" s="77">
         <f>データ設定用!M6</f>
         <v>100</v>
       </c>
-      <c r="J10" s="10">
+      <c r="J10" s="77">
         <f>データ設定用!N6</f>
         <v>1</v>
       </c>
-      <c r="K10" s="10" t="str">
+      <c r="K10" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6)</f>
         <v>10000pcs</v>
       </c>
-      <c r="L10" s="10">
+      <c r="L10" s="77">
         <f t="shared" ref="L10:L15" si="0">I10</f>
         <v>100</v>
       </c>
-      <c r="M10" s="59">
+      <c r="M10" s="78">
         <f>データ設定用!R6</f>
         <v>1000000</v>
       </c>
-      <c r="N10" s="60"/>
+      <c r="N10" s="79"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="12">
@@ -2314,35 +2324,35 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="65" t="str">
+      <c r="E11" s="45" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="12">
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="45"/>
+      <c r="I11" s="77">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="77">
         <f>データ設定用!N7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="12" t="str">
+      <c r="K11" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="12">
+      <c r="L11" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="59">
+      <c r="M11" s="78">
         <f>データ設定用!R7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="60"/>
+      <c r="N11" s="79"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="12">
@@ -2353,35 +2363,35 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="65" t="str">
+      <c r="E12" s="45" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="65"/>
-      <c r="G12" s="65"/>
-      <c r="H12" s="65"/>
-      <c r="I12" s="12">
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="77">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="77">
         <f>データ設定用!N8</f>
         <v>0</v>
       </c>
-      <c r="K12" s="12" t="str">
+      <c r="K12" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="12">
+      <c r="L12" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="59">
+      <c r="M12" s="78">
         <f>データ設定用!R8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="60"/>
+      <c r="N12" s="79"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="12">
@@ -2392,35 +2402,35 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="65" t="str">
+      <c r="E13" s="45" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="12">
+      <c r="F13" s="45"/>
+      <c r="G13" s="45"/>
+      <c r="H13" s="45"/>
+      <c r="I13" s="77">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="77">
         <f>データ設定用!N9</f>
         <v>0</v>
       </c>
-      <c r="K13" s="12" t="str">
+      <c r="K13" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="59">
+      <c r="M13" s="78">
         <f>データ設定用!R9</f>
         <v>0</v>
       </c>
-      <c r="N13" s="60"/>
+      <c r="N13" s="79"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="12">
@@ -2431,35 +2441,35 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="65" t="str">
+      <c r="E14" s="45" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="65"/>
-      <c r="G14" s="65"/>
-      <c r="H14" s="65"/>
-      <c r="I14" s="12">
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
+      <c r="I14" s="77">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="77">
         <f>データ設定用!N10</f>
         <v>0</v>
       </c>
-      <c r="K14" s="12" t="str">
+      <c r="K14" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="12">
+      <c r="L14" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="59">
+      <c r="M14" s="78">
         <f>データ設定用!R10</f>
         <v>0</v>
       </c>
-      <c r="N14" s="60"/>
+      <c r="N14" s="79"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="12">
@@ -2470,35 +2480,35 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="65" t="str">
+      <c r="E15" s="45" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="65"/>
-      <c r="H15" s="65"/>
-      <c r="I15" s="12">
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
+      <c r="I15" s="77">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="77">
         <f>データ設定用!N11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="12" t="str">
+      <c r="K15" s="77" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="12">
+      <c r="L15" s="77">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="59">
+      <c r="M15" s="78">
         <f>データ設定用!R11</f>
         <v>0</v>
       </c>
-      <c r="N15" s="60"/>
+      <c r="N15" s="79"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2511,18 +2521,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="59"/>
-      <c r="N16" s="60"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="53"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="44" t="str">
+      <c r="C17" s="58" t="str">
         <f>CONCATENATE("備考",IF(データ設定用!AK3, "：再印刷", ""),CHAR(10),データ設定用!AE3)</f>
         <v>備考：再印刷
 フッタ部の備考</v>
       </c>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="46"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="6" t="s">
         <v>8</v>
       </c>
@@ -2530,101 +2540,101 @@
         <f>データ設定用!I6</f>
         <v>00001</v>
       </c>
-      <c r="I17" s="53" t="str">
+      <c r="I17" s="67" t="str">
         <f>データ設定用!U3</f>
         <v>起票者</v>
       </c>
-      <c r="J17" s="54"/>
+      <c r="J17" s="68"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="42" t="s">
+      <c r="L17" s="56" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="61">
+      <c r="M17" s="80">
         <f>データ設定用!V3</f>
         <v>12900000</v>
       </c>
-      <c r="N17" s="62"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="47"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="63"/>
       <c r="G18" s="2"/>
       <c r="H18" s="39">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="55"/>
-      <c r="J18" s="56"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="64"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="47"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="63"/>
       <c r="G19" s="2"/>
       <c r="H19" s="39">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="55"/>
-      <c r="J19" s="56"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="47"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="63"/>
       <c r="G20" s="2"/>
       <c r="H20" s="39">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="55"/>
-      <c r="J20" s="56"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="47"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="63"/>
       <c r="G21" s="2"/>
       <c r="H21" s="39">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
-      <c r="I21" s="55"/>
-      <c r="J21" s="56"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="50"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
-      <c r="F22" s="52"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="66"/>
       <c r="G22" s="1"/>
       <c r="H22" s="39">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="57"/>
-      <c r="J22" s="58"/>
+      <c r="I22" s="71"/>
+      <c r="J22" s="72"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2651,14 +2661,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2669,14 +2679,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2709,20 +2719,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="77" t="str">
+      <c r="B2" s="73" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>株式会社　バンダイ　トイコレクターズ事業部　顧客担当者様</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="77" t="str">
+      <c r="B3" s="73" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>ロジパルお台場　ご担当者様</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2738,12 +2748,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="78" t="s">
+      <c r="D5" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
     </row>
     <row r="7" spans="1:11" ht="20.55" customHeight="1">
       <c r="D7" s="17" t="s">
@@ -2759,12 +2769,12 @@
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="79">
+      <c r="E9" s="75">
         <f>データ設定用!P3</f>
         <v>43719</v>
       </c>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="75"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
@@ -3039,10 +3049,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="80" t="s">
+      <c r="G19" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="80"/>
+      <c r="H19" s="76"/>
       <c r="I19" s="31" t="s">
         <v>28</v>
       </c>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A1E24B4-5EBB-445B-8BB5-3243CAC0F21E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40FF1B7F-9F5E-4134-B451-32390FE055BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28692" yWindow="-108" windowWidth="19416" windowHeight="15132" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="B社専用" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="156">
   <si>
     <t>弊社注文書No</t>
     <rPh sb="0" eb="2">
@@ -1268,6 +1268,10 @@
     <rPh sb="0" eb="3">
       <t>サイインサツ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10000001</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1549,7 +1553,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1624,6 +1628,105 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1633,89 +1736,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1727,26 +1752,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2117,8 +2124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2153,39 +2160,39 @@
       <c r="K3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="48" t="str">
+      <c r="L3" s="69" t="str">
         <f>データ設定用!AF3</f>
         <v>010123</v>
       </c>
-      <c r="M3" s="49"/>
+      <c r="M3" s="70"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="42"/>
+      <c r="C4" s="75"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="43" t="s">
+      <c r="F4" s="76" t="s">
         <v>14</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="44" t="str">
+      <c r="H4" s="77" t="str">
         <f>データ設定用!H3</f>
         <v>トイコレクターズ事業部</v>
       </c>
-      <c r="I4" s="44"/>
+      <c r="I4" s="77"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.55" customHeight="1">
-      <c r="C5" s="42"/>
+      <c r="C5" s="75"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="43"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2200,18 +2207,18 @@
         <v>15</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="47">
+      <c r="H6" s="79">
         <f>データ設定用!P3</f>
         <v>43719</v>
       </c>
-      <c r="I6" s="44"/>
-      <c r="J6" s="54" t="s">
+      <c r="I6" s="77"/>
+      <c r="J6" s="73" t="s">
         <v>13</v>
       </c>
-      <c r="K6" s="55"/>
-      <c r="L6" s="55"/>
-      <c r="M6" s="55"/>
-      <c r="N6" s="55"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2221,16 +2228,16 @@
         <v>10</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="44" t="str">
+      <c r="H7" s="77" t="str">
         <f>データ設定用!R3</f>
         <v>ロジパルお台場</v>
       </c>
-      <c r="I7" s="44"/>
-      <c r="J7" s="55"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
+      <c r="I7" s="77"/>
+      <c r="J7" s="74"/>
+      <c r="K7" s="74"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2253,12 +2260,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="46" t="s">
+      <c r="E9" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="46"/>
-      <c r="G9" s="46"/>
-      <c r="H9" s="46"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2271,13 +2278,13 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="50" t="s">
+      <c r="M9" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="51"/>
+      <c r="N9" s="72"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="10">
+      <c r="C10" s="84" t="str">
         <f>データ設定用!E6</f>
         <v>10000001</v>
       </c>
@@ -2285,38 +2292,38 @@
         <f>データ設定用!H6</f>
         <v>A00001</v>
       </c>
-      <c r="E10" s="45" t="str">
+      <c r="E10" s="68" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v>製品名1
 本荷　備考1</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45"/>
-      <c r="H10" s="45"/>
-      <c r="I10" s="77">
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="42">
         <f>データ設定用!M6</f>
         <v>100</v>
       </c>
-      <c r="J10" s="77">
+      <c r="J10" s="42">
         <f>データ設定用!N6</f>
         <v>1</v>
       </c>
-      <c r="K10" s="77" t="str">
+      <c r="K10" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6)</f>
         <v>10000pcs</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L10" s="42">
         <f t="shared" ref="L10:L15" si="0">I10</f>
         <v>100</v>
       </c>
-      <c r="M10" s="78">
+      <c r="M10" s="60">
         <f>データ設定用!R6</f>
         <v>1000000</v>
       </c>
-      <c r="N10" s="79"/>
+      <c r="N10" s="61"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="12">
+      <c r="C11" s="84">
         <f>データ設定用!E7</f>
         <v>0</v>
       </c>
@@ -2324,38 +2331,38 @@
         <f>データ設定用!H7</f>
         <v>0</v>
       </c>
-      <c r="E11" s="45" t="str">
+      <c r="E11" s="68" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="77">
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="42">
         <f>データ設定用!M7</f>
         <v>0</v>
       </c>
-      <c r="J11" s="77">
+      <c r="J11" s="42">
         <f>データ設定用!N7</f>
         <v>0</v>
       </c>
-      <c r="K11" s="77" t="str">
+      <c r="K11" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="77">
+      <c r="L11" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M11" s="78">
+      <c r="M11" s="60">
         <f>データ設定用!R7</f>
         <v>0</v>
       </c>
-      <c r="N11" s="79"/>
+      <c r="N11" s="61"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="12">
+      <c r="C12" s="84">
         <f>データ設定用!E8</f>
         <v>0</v>
       </c>
@@ -2363,38 +2370,38 @@
         <f>データ設定用!H8</f>
         <v>0</v>
       </c>
-      <c r="E12" s="45" t="str">
+      <c r="E12" s="68" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="45"/>
-      <c r="I12" s="77">
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="42">
         <f>データ設定用!M8</f>
         <v>0</v>
       </c>
-      <c r="J12" s="77">
+      <c r="J12" s="42">
         <f>データ設定用!N8</f>
         <v>0</v>
       </c>
-      <c r="K12" s="77" t="str">
+      <c r="K12" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="77">
+      <c r="L12" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M12" s="78">
+      <c r="M12" s="60">
         <f>データ設定用!R8</f>
         <v>0</v>
       </c>
-      <c r="N12" s="79"/>
+      <c r="N12" s="61"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="12">
+      <c r="C13" s="84">
         <f>データ設定用!E9</f>
         <v>0</v>
       </c>
@@ -2402,38 +2409,38 @@
         <f>データ設定用!H9</f>
         <v>0</v>
       </c>
-      <c r="E13" s="45" t="str">
+      <c r="E13" s="68" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45"/>
-      <c r="H13" s="45"/>
-      <c r="I13" s="77">
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="42">
         <f>データ設定用!M9</f>
         <v>0</v>
       </c>
-      <c r="J13" s="77">
+      <c r="J13" s="42">
         <f>データ設定用!N9</f>
         <v>0</v>
       </c>
-      <c r="K13" s="77" t="str">
+      <c r="K13" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="77">
+      <c r="L13" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M13" s="78">
+      <c r="M13" s="60">
         <f>データ設定用!R9</f>
         <v>0</v>
       </c>
-      <c r="N13" s="79"/>
+      <c r="N13" s="61"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="12">
+      <c r="C14" s="84">
         <f>データ設定用!E10</f>
         <v>0</v>
       </c>
@@ -2441,38 +2448,38 @@
         <f>データ設定用!H10</f>
         <v>0</v>
       </c>
-      <c r="E14" s="45" t="str">
+      <c r="E14" s="68" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
-      <c r="I14" s="77">
+      <c r="F14" s="68"/>
+      <c r="G14" s="68"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="42">
         <f>データ設定用!M10</f>
         <v>0</v>
       </c>
-      <c r="J14" s="77">
+      <c r="J14" s="42">
         <f>データ設定用!N10</f>
         <v>0</v>
       </c>
-      <c r="K14" s="77" t="str">
+      <c r="K14" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="77">
+      <c r="L14" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M14" s="78">
+      <c r="M14" s="60">
         <f>データ設定用!R10</f>
         <v>0</v>
       </c>
-      <c r="N14" s="79"/>
+      <c r="N14" s="61"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="12">
+      <c r="C15" s="84">
         <f>データ設定用!E11</f>
         <v>0</v>
       </c>
@@ -2480,35 +2487,35 @@
         <f>データ設定用!H11</f>
         <v>0</v>
       </c>
-      <c r="E15" s="45" t="str">
+      <c r="E15" s="68" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
-      <c r="I15" s="77">
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="42">
         <f>データ設定用!M11</f>
         <v>0</v>
       </c>
-      <c r="J15" s="77">
+      <c r="J15" s="42">
         <f>データ設定用!N11</f>
         <v>0</v>
       </c>
-      <c r="K15" s="77" t="str">
+      <c r="K15" s="42" t="str">
         <f>CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="77">
+      <c r="L15" s="42">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M15" s="78">
+      <c r="M15" s="60">
         <f>データ設定用!R11</f>
         <v>0</v>
       </c>
-      <c r="N15" s="79"/>
+      <c r="N15" s="61"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2521,18 +2528,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="53"/>
+      <c r="M16" s="62"/>
+      <c r="N16" s="63"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="58" t="str">
+      <c r="C17" s="45" t="str">
         <f>CONCATENATE("備考",IF(データ設定用!AK3, "：再印刷", ""),CHAR(10),データ設定用!AE3)</f>
         <v>備考：再印刷
 フッタ部の備考</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
       <c r="G17" s="6" t="s">
         <v>8</v>
       </c>
@@ -2540,101 +2547,101 @@
         <f>データ設定用!I6</f>
         <v>00001</v>
       </c>
-      <c r="I17" s="67" t="str">
+      <c r="I17" s="54" t="str">
         <f>データ設定用!U3</f>
         <v>起票者</v>
       </c>
-      <c r="J17" s="68"/>
+      <c r="J17" s="55"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="56" t="s">
+      <c r="L17" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="M17" s="80">
+      <c r="M17" s="64">
         <f>データ設定用!V3</f>
         <v>12900000</v>
       </c>
-      <c r="N17" s="81"/>
+      <c r="N17" s="65"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="61"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="63"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
       <c r="G18" s="2"/>
       <c r="H18" s="39">
         <f>データ設定用!I7</f>
         <v>0</v>
       </c>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="57"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="66"/>
+      <c r="N18" s="67"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="63"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
       <c r="G19" s="2"/>
       <c r="H19" s="39">
         <f>データ設定用!I8</f>
         <v>0</v>
       </c>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="57"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="61"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="63"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="G20" s="2"/>
       <c r="H20" s="39">
         <f>データ設定用!I9</f>
         <v>0</v>
       </c>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="57"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="61"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="63"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="50"/>
       <c r="G21" s="2"/>
       <c r="H21" s="39">
         <f>データ設定用!I10</f>
         <v>0</v>
       </c>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="57"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="64"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="66"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="1"/>
       <c r="H22" s="39">
         <f>データ設定用!I11</f>
         <v>0</v>
       </c>
-      <c r="I22" s="71"/>
-      <c r="J22" s="72"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="59"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2661,14 +2668,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2679,14 +2686,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2719,20 +2726,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="73" t="str">
+      <c r="B2" s="80" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>株式会社　バンダイ　トイコレクターズ事業部　顧客担当者様</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
     </row>
     <row r="3" spans="1:11" ht="21">
-      <c r="B3" s="73" t="str">
+      <c r="B3" s="80" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>ロジパルお台場　ご担当者様</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="14"/>
       <c r="F3" s="14"/>
       <c r="G3" s="14"/>
@@ -2748,12 +2755,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
-      <c r="D5" s="74" t="s">
+      <c r="D5" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
     </row>
     <row r="7" spans="1:11" ht="20.55" customHeight="1">
       <c r="D7" s="17" t="s">
@@ -2769,12 +2776,12 @@
       <c r="D9" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="75">
+      <c r="E9" s="82">
         <f>データ設定用!P3</f>
         <v>43719</v>
       </c>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="19"/>
@@ -2817,7 +2824,7 @@
       <c r="A12" s="22">
         <v>1</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="27" t="str">
         <f>B社専用!C10</f>
         <v>10000001</v>
       </c>
@@ -3049,10 +3056,10 @@
       <c r="K18" s="21"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="76" t="s">
+      <c r="G19" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="H19" s="76"/>
+      <c r="H19" s="83"/>
       <c r="I19" s="31" t="s">
         <v>28</v>
       </c>
@@ -3101,8 +3108,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1E80469-A01B-4291-81A1-A72EEF389B48}">
   <dimension ref="A1:AK11"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK4" sqref="AK4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3530,8 +3537,8 @@
       <c r="A6" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="36">
-        <v>10000001</v>
+      <c r="E6" s="38" t="s">
+        <v>155</v>
       </c>
       <c r="G6" s="34" t="s">
         <v>121</v>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D74CB2-3CB5-4E38-B0EC-57E425490B10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F06F9-84D4-4A11-A365-50F2F28FD361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1391,9 +1391,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
@@ -1450,6 +1447,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,7 +1571,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1943,8 +1943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="U8" sqref="U8"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2043,7 +2043,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="41" t="s">
+      <c r="F7" s="40" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
@@ -2103,13 +2103,13 @@
       <c r="N9" s="54"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="86">
-        <f>データ設定用!E6</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10">
-        <f>データ設定用!H6</f>
-        <v>0</v>
+      <c r="C10" s="86" t="str">
+        <f>IF(データ設定用!E6="","",データ設定用!E6)</f>
+        <v/>
+      </c>
+      <c r="D10" s="10" t="str">
+        <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
+        <v/>
       </c>
       <c r="E10" s="48" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
@@ -2119,19 +2119,19 @@
       <c r="F10" s="48"/>
       <c r="G10" s="48"/>
       <c r="H10" s="48"/>
-      <c r="I10" s="43" t="str">
+      <c r="I10" s="42" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
-      <c r="J10" s="43" t="str">
+      <c r="J10" s="42" t="str">
         <f>IF(LEN(データ設定用!N6)&gt;0,データ設定用!N6,"")</f>
         <v/>
       </c>
-      <c r="K10" s="43" t="str">
+      <c r="K10" s="42" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
-      <c r="L10" s="43" t="str">
+      <c r="L10" s="42" t="str">
         <f>IF(LEN(I10)&gt;0,I10,"")</f>
         <v/>
       </c>
@@ -2142,13 +2142,13 @@
       <c r="N10" s="56"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="86">
-        <f>データ設定用!E7</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="12">
-        <f>データ設定用!H7</f>
-        <v>0</v>
+      <c r="C11" s="86" t="str">
+        <f>IF(データ設定用!E7 = "","",データ設定用!E7)</f>
+        <v/>
+      </c>
+      <c r="D11" s="44" t="str">
+        <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
+        <v/>
       </c>
       <c r="E11" s="48" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
@@ -2158,19 +2158,19 @@
       <c r="F11" s="48"/>
       <c r="G11" s="48"/>
       <c r="H11" s="48"/>
-      <c r="I11" s="43" t="str">
+      <c r="I11" s="42" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
-      <c r="J11" s="43" t="str">
+      <c r="J11" s="42" t="str">
         <f>IF(LEN(データ設定用!N7)&gt;0,データ設定用!N7,"")</f>
         <v/>
       </c>
-      <c r="K11" s="43" t="str">
+      <c r="K11" s="42" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
-      <c r="L11" s="43" t="str">
+      <c r="L11" s="42" t="str">
         <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
         <v/>
       </c>
@@ -2181,13 +2181,13 @@
       <c r="N11" s="56"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="86">
-        <f>データ設定用!E8</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="12">
-        <f>データ設定用!H8</f>
-        <v>0</v>
+      <c r="C12" s="86" t="str">
+        <f>IF(データ設定用!E8 = "","",データ設定用!E8)</f>
+        <v/>
+      </c>
+      <c r="D12" s="44" t="str">
+        <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
+        <v/>
       </c>
       <c r="E12" s="48" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
@@ -2197,19 +2197,19 @@
       <c r="F12" s="48"/>
       <c r="G12" s="48"/>
       <c r="H12" s="48"/>
-      <c r="I12" s="43" t="str">
+      <c r="I12" s="42" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="J12" s="43" t="str">
+      <c r="J12" s="42" t="str">
         <f>IF(LEN(データ設定用!N8)&gt;0,データ設定用!N8,"")</f>
         <v/>
       </c>
-      <c r="K12" s="43" t="str">
+      <c r="K12" s="42" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
-      <c r="L12" s="43" t="str">
+      <c r="L12" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2220,13 +2220,13 @@
       <c r="N12" s="56"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="86">
-        <f>データ設定用!E9</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="12">
-        <f>データ設定用!H9</f>
-        <v>0</v>
+      <c r="C13" s="86" t="str">
+        <f>IF(データ設定用!E9 = "","",データ設定用!E9)</f>
+        <v/>
+      </c>
+      <c r="D13" s="44" t="str">
+        <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
+        <v/>
       </c>
       <c r="E13" s="48" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
@@ -2236,19 +2236,19 @@
       <c r="F13" s="48"/>
       <c r="G13" s="48"/>
       <c r="H13" s="48"/>
-      <c r="I13" s="43" t="str">
+      <c r="I13" s="42" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
-      <c r="J13" s="43" t="str">
+      <c r="J13" s="42" t="str">
         <f>IF(LEN(データ設定用!N9)&gt;0,データ設定用!N9,"")</f>
         <v/>
       </c>
-      <c r="K13" s="43" t="str">
+      <c r="K13" s="42" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
-      <c r="L13" s="43" t="str">
+      <c r="L13" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2259,13 +2259,13 @@
       <c r="N13" s="56"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="86">
-        <f>データ設定用!E10</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="12">
-        <f>データ設定用!H10</f>
-        <v>0</v>
+      <c r="C14" s="86" t="str">
+        <f>IF(データ設定用!E10 = "","",データ設定用!E10)</f>
+        <v/>
+      </c>
+      <c r="D14" s="44" t="str">
+        <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
+        <v/>
       </c>
       <c r="E14" s="48" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
@@ -2275,19 +2275,19 @@
       <c r="F14" s="48"/>
       <c r="G14" s="48"/>
       <c r="H14" s="48"/>
-      <c r="I14" s="43" t="str">
+      <c r="I14" s="42" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
-      <c r="J14" s="43" t="str">
+      <c r="J14" s="42" t="str">
         <f>IF(LEN(データ設定用!N10)&gt;0,データ設定用!N10,"")</f>
         <v/>
       </c>
-      <c r="K14" s="43" t="str">
+      <c r="K14" s="42" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="43" t="str">
+      <c r="L14" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2298,13 +2298,13 @@
       <c r="N14" s="56"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="86">
-        <f>データ設定用!E11</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="12">
-        <f>データ設定用!H11</f>
-        <v>0</v>
+      <c r="C15" s="86" t="str">
+        <f>IF(データ設定用!E11 = "","",データ設定用!E11)</f>
+        <v/>
+      </c>
+      <c r="D15" s="44" t="str">
+        <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
+        <v/>
       </c>
       <c r="E15" s="48" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
@@ -2314,19 +2314,19 @@
       <c r="F15" s="48"/>
       <c r="G15" s="48"/>
       <c r="H15" s="48"/>
-      <c r="I15" s="43" t="str">
+      <c r="I15" s="42" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
-      <c r="J15" s="43" t="str">
+      <c r="J15" s="42" t="str">
         <f>IF(LEN(データ設定用!N11)&gt;0,データ設定用!N11,"")</f>
         <v/>
       </c>
-      <c r="K15" s="43" t="str">
+      <c r="K15" s="42" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
-      <c r="L15" s="43" t="str">
+      <c r="L15" s="42" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
@@ -2359,10 +2359,10 @@
       <c r="D17" s="62"/>
       <c r="E17" s="62"/>
       <c r="F17" s="63"/>
-      <c r="G17" s="42" t="s">
+      <c r="G17" s="41" t="s">
         <v>133</v>
       </c>
-      <c r="H17" s="44" t="str">
+      <c r="H17" s="43" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
@@ -2387,7 +2387,7 @@
       <c r="E18" s="65"/>
       <c r="F18" s="66"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="44" t="str">
+      <c r="H18" s="43" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
@@ -2404,7 +2404,7 @@
       <c r="E19" s="65"/>
       <c r="F19" s="66"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="44" t="str">
+      <c r="H19" s="43" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="E20" s="65"/>
       <c r="F20" s="66"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="44" t="str">
+      <c r="H20" s="43" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
@@ -2438,7 +2438,7 @@
       <c r="E21" s="65"/>
       <c r="F21" s="66"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="44" t="str">
+      <c r="H21" s="43" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
@@ -2455,7 +2455,7 @@
       <c r="E22" s="68"/>
       <c r="F22" s="69"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="44" t="str">
+      <c r="H22" s="43" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
@@ -2473,7 +2473,7 @@
       <c r="F23" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="37" t="str">
+      <c r="G23" s="36" t="str">
         <f>IF(LEN(データ設定用!D3)&gt;0,TEXT(データ設定用!D3,"0"),"")</f>
         <v/>
       </c>
@@ -2531,17 +2531,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="13" customWidth="1"/>
-    <col min="2" max="2" width="16" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="13" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="11.44140625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="13" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="13" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="13" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="13"/>
+    <col min="1" max="1" width="3" style="12" customWidth="1"/>
+    <col min="2" max="2" width="16" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="11.21875" style="12" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="12"/>
+    <col min="7" max="7" width="11.44140625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="16.21875" style="12" customWidth="1"/>
+    <col min="9" max="9" width="18.77734375" style="12" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="12" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="12"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
@@ -2571,16 +2571,16 @@
       <c r="I3" s="85"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="82" t="s">
         <v>15</v>
       </c>
@@ -2589,17 +2589,17 @@
       <c r="G5" s="82"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="17"/>
+      <c r="E7" s="16"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
     </row>
     <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="83">
@@ -2610,302 +2610,302 @@
       <c r="G9" s="83"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
-      <c r="D10" s="19"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23" t="s">
+      <c r="A11" s="21"/>
+      <c r="B11" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="24" t="s">
+      <c r="F11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="25" t="s">
+      <c r="I11" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="26"/>
-      <c r="K11" s="21"/>
+      <c r="J11" s="25"/>
+      <c r="K11" s="20"/>
     </row>
     <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A12" s="22">
+      <c r="A12" s="21">
         <v>1</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B12" s="26" t="str">
         <f>IF(LEN(納品書!C10)&gt;0,納品書!C10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C12" s="28">
+        <v/>
+      </c>
+      <c r="C12" s="27" t="str">
         <f>IF(LEN(納品書!D10)&gt;0,納品書!D10,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D12" s="27" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="E12" s="28" t="str">
+      <c r="E12" s="27" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="F12" s="28" t="str">
+      <c r="F12" s="27" t="str">
         <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
         <v/>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="39" t="str">
+      <c r="G12" s="27"/>
+      <c r="H12" s="38" t="str">
         <f>IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I12" s="29" t="str">
+      <c r="I12" s="28" t="str">
         <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J12" s="26"/>
-      <c r="K12" s="21"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="20"/>
     </row>
     <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A13" s="22">
+      <c r="A13" s="21">
         <v>2</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B13" s="26" t="str">
         <f>IF(LEN(納品書!C11)&gt;0,納品書!C11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C13" s="28">
+        <v/>
+      </c>
+      <c r="C13" s="27" t="str">
         <f>IF(LEN(納品書!D11)&gt;0,納品書!D11,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D13" s="27" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="E13" s="28" t="str">
+      <c r="E13" s="27" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="F13" s="28" t="str">
+      <c r="F13" s="27" t="str">
         <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
         <v/>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="39" t="str">
+      <c r="G13" s="27"/>
+      <c r="H13" s="38" t="str">
         <f>IF(LEN(データ設定用!G7)&gt;0,CONCATENATE(データ設定用!G7,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I13" s="29" t="str">
+      <c r="I13" s="28" t="str">
         <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="21"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A14" s="22">
+      <c r="A14" s="21">
         <v>3</v>
       </c>
-      <c r="B14" s="27">
+      <c r="B14" s="26" t="str">
         <f>IF(LEN(納品書!C12)&gt;0,納品書!C12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C14" s="28">
+        <v/>
+      </c>
+      <c r="C14" s="27" t="str">
         <f>IF(LEN(納品書!D12)&gt;0,納品書!D12,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D14" s="27" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="E14" s="28" t="str">
+      <c r="E14" s="27" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="F14" s="28" t="str">
+      <c r="F14" s="27" t="str">
         <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
         <v/>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="39" t="str">
+      <c r="G14" s="27"/>
+      <c r="H14" s="38" t="str">
         <f>IF(LEN(データ設定用!G8)&gt;0,CONCATENATE(データ設定用!G8,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I14" s="29" t="str">
+      <c r="I14" s="28" t="str">
         <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J14" s="26"/>
-      <c r="K14" s="21"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A15" s="22">
+      <c r="A15" s="21">
         <v>4</v>
       </c>
-      <c r="B15" s="27">
+      <c r="B15" s="26" t="str">
         <f>IF(LEN(納品書!C13)&gt;0,納品書!C13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C15" s="28">
+        <v/>
+      </c>
+      <c r="C15" s="27" t="str">
         <f>IF(LEN(納品書!D13)&gt;0,納品書!D13,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D15" s="27" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="E15" s="28" t="str">
+      <c r="E15" s="27" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="F15" s="28" t="str">
+      <c r="F15" s="27" t="str">
         <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
         <v/>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="39" t="str">
+      <c r="G15" s="27"/>
+      <c r="H15" s="38" t="str">
         <f>IF(LEN(データ設定用!G9)&gt;0,CONCATENATE(データ設定用!G9,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I15" s="29" t="str">
+      <c r="I15" s="28" t="str">
         <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J15" s="26"/>
-      <c r="K15" s="21"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="20"/>
     </row>
     <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A16" s="22">
+      <c r="A16" s="21">
         <v>5</v>
       </c>
-      <c r="B16" s="27">
+      <c r="B16" s="26" t="str">
         <f>IF(LEN(納品書!C14)&gt;0,納品書!C14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C16" s="28">
+        <v/>
+      </c>
+      <c r="C16" s="27" t="str">
         <f>IF(LEN(納品書!D14)&gt;0,納品書!D14,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D16" s="27" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="E16" s="28" t="str">
+      <c r="E16" s="27" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="F16" s="28" t="str">
+      <c r="F16" s="27" t="str">
         <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
         <v/>
       </c>
-      <c r="G16" s="28"/>
-      <c r="H16" s="39" t="str">
+      <c r="G16" s="27"/>
+      <c r="H16" s="38" t="str">
         <f>IF(LEN(データ設定用!G10)&gt;0,CONCATENATE(データ設定用!G10,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I16" s="29" t="str">
+      <c r="I16" s="28" t="str">
         <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J16" s="26"/>
-      <c r="K16" s="21"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="20"/>
     </row>
     <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A17" s="22">
+      <c r="A17" s="21">
         <v>6</v>
       </c>
-      <c r="B17" s="27">
+      <c r="B17" s="26" t="str">
         <f>IF(LEN(納品書!C15)&gt;0,納品書!C15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="28">
+        <v/>
+      </c>
+      <c r="C17" s="27" t="str">
         <f>IF(LEN(納品書!D15)&gt;0,納品書!D15,"")</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="28" t="str">
+        <v/>
+      </c>
+      <c r="D17" s="27" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="E17" s="28" t="str">
+      <c r="E17" s="27" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="F17" s="28" t="str">
+      <c r="F17" s="27" t="str">
         <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
         <v/>
       </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="39" t="str">
+      <c r="G17" s="27"/>
+      <c r="H17" s="38" t="str">
         <f>IF(LEN(データ設定用!G11)&gt;0,CONCATENATE(データ設定用!G11,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I17" s="29" t="str">
+      <c r="I17" s="28" t="str">
         <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J17" s="26"/>
-      <c r="K17" s="21"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A18" s="21"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="29"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
       <c r="G19" s="84" t="s">
         <v>26</v>
       </c>
       <c r="H19" s="84"/>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="32"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="31" t="s">
+      <c r="G20" s="31"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="30" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="32"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="31" t="s">
+      <c r="G21" s="31"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="30" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="32"/>
-      <c r="H22" s="33" t="s">
+      <c r="G22" s="31"/>
+      <c r="H22" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="31">
+      <c r="I22" s="30">
         <f>納品書!I17</f>
         <v>0</v>
       </c>
@@ -2990,22 +2990,22 @@
       <c r="H1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="N1" s="12" t="s">
         <v>120</v>
       </c>
       <c r="O1" t="s">
@@ -3059,10 +3059,10 @@
       <c r="AE1" t="s">
         <v>109</v>
       </c>
-      <c r="AF1" s="13" t="s">
+      <c r="AF1" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="34"/>
+      <c r="AG1" s="33"/>
       <c r="AI1" t="s">
         <v>113</v>
       </c>
@@ -3092,22 +3092,22 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O2" t="s">
@@ -3161,33 +3161,33 @@
       <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="13" t="s">
+      <c r="AF2" s="12" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:36">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="35"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="34"/>
+      <c r="D3" s="35"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="34"/>
+      <c r="R3" s="33"/>
+      <c r="S3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="Z3" s="33"/>
+      <c r="AA3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="37"/>
+      <c r="AG3" s="33"/>
       <c r="AI3">
         <f>ROUNDDOWN(IF(Y3&lt;&gt;1,0,IF(Y3=1,V3*AA3,V3/(1+AA3)*AA3)),0)</f>
         <v>0</v>
@@ -3310,83 +3310,83 @@
       </c>
     </row>
     <row r="6" spans="1:36">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="38"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34"/>
-      <c r="Q6" s="34"/>
-      <c r="S6" s="34"/>
+      <c r="E6" s="37"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="37"/>
+      <c r="J6" s="37"/>
+      <c r="K6" s="33"/>
+      <c r="Q6" s="33"/>
+      <c r="S6" s="33"/>
     </row>
     <row r="7" spans="1:36">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="34"/>
-      <c r="Q7" s="34"/>
-      <c r="S7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="33"/>
+      <c r="Q7" s="33"/>
+      <c r="S7" s="33"/>
     </row>
     <row r="8" spans="1:36">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="34"/>
-      <c r="Q8" s="34"/>
-      <c r="S8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="37"/>
+      <c r="J8" s="37"/>
+      <c r="K8" s="33"/>
+      <c r="Q8" s="33"/>
+      <c r="S8" s="33"/>
     </row>
     <row r="9" spans="1:36">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="G9" s="34"/>
-      <c r="H9" s="34"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="34"/>
-      <c r="Q9" s="34"/>
-      <c r="S9" s="34"/>
-      <c r="Z9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="33"/>
+      <c r="Q9" s="33"/>
+      <c r="S9" s="33"/>
+      <c r="Z9" s="33"/>
     </row>
     <row r="10" spans="1:36">
-      <c r="A10" s="34" t="s">
+      <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="34"/>
-      <c r="Q10" s="34"/>
-      <c r="S10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="S10" s="33"/>
     </row>
     <row r="11" spans="1:36">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="36"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="34"/>
-      <c r="Q11" s="34"/>
-      <c r="S11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="33"/>
+      <c r="Q11" s="33"/>
+      <c r="S11" s="33"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F06F9-84D4-4A11-A365-50F2F28FD361}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDAB8D7-4FE9-45C5-8156-79FF97AAD056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
   <si>
     <t>弊社注文書No</t>
     <rPh sb="0" eb="2">
@@ -518,9 +518,6 @@
     <t>lngsalesclasscode</t>
   </si>
   <si>
-    <t>strsalesclassname</t>
-  </si>
-  <si>
     <t>strgoodscode</t>
   </si>
   <si>
@@ -1079,6 +1076,34 @@
     <rPh sb="0" eb="2">
       <t>セイヒン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>strsalesclassname</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>%</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1366,7 +1391,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1450,6 +1475,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1571,9 +1602,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1943,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="C1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1979,39 +2007,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="53">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="54"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="45"/>
+      <c r="C4" s="47"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="46" t="s">
+      <c r="F4" s="48" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="47">
+      <c r="H4" s="49">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="47"/>
+      <c r="I4" s="49"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="45"/>
+      <c r="C5" s="47"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="46"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2026,18 +2054,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="50">
+      <c r="H6" s="52">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="57" t="s">
+      <c r="I6" s="49"/>
+      <c r="J6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2047,16 +2075,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="47">
+      <c r="H7" s="49">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="47"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2079,12 +2107,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+      <c r="H9" s="51"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2097,13 +2125,13 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="53" t="s">
+      <c r="M9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="54"/>
+      <c r="N9" s="56"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="86" t="str">
+      <c r="C10" s="45" t="str">
         <f>IF(データ設定用!E6="","",データ設定用!E6)</f>
         <v/>
       </c>
@@ -2111,14 +2139,14 @@
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
-      <c r="E10" s="48" t="str">
+      <c r="E10" s="50" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
-      <c r="H10" s="48"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
       <c r="I10" s="42" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
@@ -2135,14 +2163,14 @@
         <f>IF(LEN(I10)&gt;0,I10,"")</f>
         <v/>
       </c>
-      <c r="M10" s="55" t="str">
+      <c r="M10" s="57" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="56"/>
+      <c r="N10" s="58"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="86" t="str">
+      <c r="C11" s="45" t="str">
         <f>IF(データ設定用!E7 = "","",データ設定用!E7)</f>
         <v/>
       </c>
@@ -2150,14 +2178,14 @@
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
-      <c r="E11" s="48" t="str">
+      <c r="E11" s="50" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
-      <c r="H11" s="48"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
       <c r="I11" s="42" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
@@ -2174,14 +2202,14 @@
         <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
         <v/>
       </c>
-      <c r="M11" s="55" t="str">
+      <c r="M11" s="57" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="56"/>
+      <c r="N11" s="58"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="86" t="str">
+      <c r="C12" s="45" t="str">
         <f>IF(データ設定用!E8 = "","",データ設定用!E8)</f>
         <v/>
       </c>
@@ -2189,14 +2217,14 @@
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
-      <c r="E12" s="48" t="str">
+      <c r="E12" s="50" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
-      <c r="H12" s="48"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
       <c r="I12" s="42" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
@@ -2213,14 +2241,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="55" t="str">
+      <c r="M12" s="57" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="56"/>
+      <c r="N12" s="58"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="86" t="str">
+      <c r="C13" s="45" t="str">
         <f>IF(データ設定用!E9 = "","",データ設定用!E9)</f>
         <v/>
       </c>
@@ -2228,14 +2256,14 @@
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
-      <c r="E13" s="48" t="str">
+      <c r="E13" s="50" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
       <c r="I13" s="42" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
@@ -2252,14 +2280,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="55" t="str">
+      <c r="M13" s="57" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="56"/>
+      <c r="N13" s="58"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="86" t="str">
+      <c r="C14" s="45" t="str">
         <f>IF(データ設定用!E10 = "","",データ設定用!E10)</f>
         <v/>
       </c>
@@ -2267,14 +2295,14 @@
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
-      <c r="E14" s="48" t="str">
+      <c r="E14" s="50" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
       <c r="I14" s="42" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
@@ -2291,14 +2319,14 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="55" t="str">
+      <c r="M14" s="57" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="56"/>
+      <c r="N14" s="58"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="86" t="str">
+      <c r="C15" s="45" t="str">
         <f>IF(データ設定用!E11 = "","",データ設定用!E11)</f>
         <v/>
       </c>
@@ -2306,14 +2334,14 @@
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
-      <c r="E15" s="48" t="str">
+      <c r="E15" s="50" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
       <c r="I15" s="42" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
@@ -2330,11 +2358,11 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="55" t="str">
+      <c r="M15" s="57" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="56"/>
+      <c r="N15" s="58"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2347,120 +2375,120 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="76"/>
-      <c r="N16" s="77"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="61" t="str">
-        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE("(",データ設定用!AA3*100,"%)"),""),CHAR(10),データ設定用!AE3)</f>
+      <c r="C17" s="63" t="str">
+        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="63"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
       <c r="G17" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="H17" s="43" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="70">
+      <c r="I17" s="72">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="71"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="59" t="s">
+      <c r="L17" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="78">
+      <c r="M17" s="80">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="79"/>
+      <c r="N17" s="81"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="64"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="66"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="2"/>
       <c r="H18" s="43" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="60"/>
-      <c r="M18" s="80"/>
-      <c r="N18" s="81"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="64"/>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
-      <c r="F19" s="66"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="2"/>
       <c r="H19" s="43" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="72"/>
-      <c r="J19" s="73"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="64"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="65"/>
-      <c r="F20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="2"/>
       <c r="H20" s="43" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="72"/>
-      <c r="J20" s="73"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="64"/>
-      <c r="D21" s="65"/>
-      <c r="E21" s="65"/>
-      <c r="F21" s="66"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="2"/>
       <c r="H21" s="43" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="72"/>
-      <c r="J21" s="73"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="1"/>
       <c r="H22" s="43" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="74"/>
-      <c r="J22" s="75"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2474,8 +2502,9 @@
         <v>8</v>
       </c>
       <c r="G23" s="36" t="str">
-        <f>IF(LEN(データ設定用!D3)&gt;0,TEXT(データ設定用!D3,"0"),"")</f>
-        <v/>
+        <f>IF(LEN(データ設定用!AM1)&gt;0,TEXT(データ設定用!AM1,"0"),"")</f>
+        <v xml:space="preserve">
+</v>
       </c>
       <c r="H23" s="8"/>
       <c r="I23" s="2"/>
@@ -2545,30 +2574,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="85" t="str">
+      <c r="B2" s="87" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="85"/>
-      <c r="I2" s="85"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="85" t="str">
+      <c r="B3" s="87" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="14"/>
@@ -2581,12 +2610,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="82" t="s">
+      <c r="D5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="16" t="s">
@@ -2602,12 +2631,12 @@
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="83">
+      <c r="E9" s="85">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="18"/>
@@ -2876,10 +2905,10 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="84" t="s">
+      <c r="G19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="84"/>
+      <c r="H19" s="86"/>
       <c r="I19" s="30" t="s">
         <v>27</v>
       </c>
@@ -2926,10 +2955,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AJ11"/>
+  <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2968,109 +2997,118 @@
     <col min="32" max="32" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:39" ht="26.4">
       <c r="B1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s">
         <v>92</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>110</v>
+      </c>
+      <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="G1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="L1" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="J1" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="K1" s="39" t="s">
-        <v>125</v>
-      </c>
-      <c r="L1" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="M1" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="N1" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>96</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>97</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>98</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>99</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" t="s">
         <v>100</v>
       </c>
-      <c r="T1" t="s">
-        <v>103</v>
-      </c>
-      <c r="U1" t="s">
-        <v>104</v>
-      </c>
-      <c r="V1" t="s">
-        <v>105</v>
-      </c>
-      <c r="W1" t="s">
-        <v>106</v>
-      </c>
-      <c r="X1" t="s">
+      <c r="Z1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" t="s">
         <v>107</v>
       </c>
-      <c r="Y1" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>102</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>116</v>
-      </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>108</v>
       </c>
-      <c r="AE1" t="s">
-        <v>109</v>
-      </c>
       <c r="AF1" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AG1" s="33"/>
       <c r="AI1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>113</v>
       </c>
-      <c r="AJ1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:36">
+      <c r="AK1" s="33" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL1" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="AM1" s="46" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39">
       <c r="B2" t="s">
         <v>38</v>
       </c>
@@ -3087,28 +3125,28 @@
         <v>42</v>
       </c>
       <c r="G2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H2" t="s">
         <v>43</v>
       </c>
       <c r="I2" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="J2" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="K2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="L2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="L2" s="39" t="s">
-        <v>130</v>
-      </c>
       <c r="M2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="12" t="s">
         <v>121</v>
-      </c>
-      <c r="N2" s="12" t="s">
-        <v>122</v>
       </c>
       <c r="O2" t="s">
         <v>44</v>
@@ -3150,10 +3188,10 @@
         <v>51</v>
       </c>
       <c r="AB2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AC2" t="s">
         <v>117</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>118</v>
       </c>
       <c r="AD2" t="s">
         <v>57</v>
@@ -3162,14 +3200,13 @@
         <v>58</v>
       </c>
       <c r="AF2" s="12" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39">
       <c r="A3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D3" s="35"/>
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
       <c r="I3" s="12"/>
@@ -3197,63 +3234,63 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:39">
       <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
         <v>74</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>75</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>76</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>77</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>78</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>79</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>80</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>81</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>82</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>83</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>84</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>85</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>86</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>87</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>89</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>90</v>
       </c>
-      <c r="S4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+    </row>
+    <row r="5" spans="1:39">
       <c r="B5" t="s">
         <v>38</v>
       </c>
@@ -3269,47 +3306,47 @@
       <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H5" t="s">
         <v>62</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>63</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>64</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>65</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>66</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>67</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>68</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>69</v>
       </c>
-      <c r="O5" t="s">
+      <c r="P5" t="s">
         <v>70</v>
       </c>
-      <c r="P5" t="s">
+      <c r="Q5" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>72</v>
-      </c>
-      <c r="R5" t="s">
-        <v>73</v>
       </c>
       <c r="S5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:36">
+    <row r="6" spans="1:39">
       <c r="A6" s="33" t="s">
         <v>32</v>
       </c>
@@ -3322,7 +3359,7 @@
       <c r="Q6" s="33"/>
       <c r="S6" s="33"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:39">
       <c r="A7" s="33" t="s">
         <v>33</v>
       </c>
@@ -3335,7 +3372,7 @@
       <c r="Q7" s="33"/>
       <c r="S7" s="33"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:39">
       <c r="A8" s="33" t="s">
         <v>34</v>
       </c>
@@ -3348,7 +3385,7 @@
       <c r="Q8" s="33"/>
       <c r="S8" s="33"/>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:39">
       <c r="A9" s="33" t="s">
         <v>35</v>
       </c>
@@ -3362,7 +3399,7 @@
       <c r="S9" s="33"/>
       <c r="Z9" s="33"/>
     </row>
-    <row r="10" spans="1:36">
+    <row r="10" spans="1:39">
       <c r="A10" s="33" t="s">
         <v>36</v>
       </c>
@@ -3375,7 +3412,7 @@
       <c r="Q10" s="33"/>
       <c r="S10" s="33"/>
     </row>
-    <row r="11" spans="1:36">
+    <row r="11" spans="1:39">
       <c r="A11" s="33" t="s">
         <v>37</v>
       </c>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDAB8D7-4FE9-45C5-8156-79FF97AAD056}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954158D-5AB1-4F08-9031-44B4C4D9B5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,9 +1111,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -1391,7 +1392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1481,6 +1482,102 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,108 +1587,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1602,6 +1603,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1972,7 +1976,7 @@
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+      <selection activeCell="M10" sqref="M10:N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2007,39 +2011,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="53">
+      <c r="L3" s="73">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="54"/>
+      <c r="M3" s="74"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="47"/>
+      <c r="C4" s="79"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="48" t="s">
+      <c r="F4" s="80" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="49">
+      <c r="H4" s="81">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="49"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="47"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="48"/>
+      <c r="F5" s="80"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2054,18 +2058,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="52">
+      <c r="H6" s="83">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="49"/>
-      <c r="J6" s="59" t="s">
+      <c r="I6" s="81"/>
+      <c r="J6" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
+      <c r="K6" s="78"/>
+      <c r="L6" s="78"/>
+      <c r="M6" s="78"/>
+      <c r="N6" s="78"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2075,16 +2079,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="49">
+      <c r="H7" s="81">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="49"/>
-      <c r="J7" s="60"/>
-      <c r="K7" s="60"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="78"/>
+      <c r="K7" s="78"/>
+      <c r="L7" s="78"/>
+      <c r="M7" s="78"/>
+      <c r="N7" s="78"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2107,12 +2111,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="51" t="s">
+      <c r="E9" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
+      <c r="F9" s="82"/>
+      <c r="G9" s="82"/>
+      <c r="H9" s="82"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2125,10 +2129,10 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="55" t="s">
+      <c r="M9" s="75" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="56"/>
+      <c r="N9" s="76"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="45" t="str">
@@ -2139,15 +2143,15 @@
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
-      <c r="E10" s="50" t="str">
+      <c r="E10" s="72" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="42" t="str">
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="88" t="str">
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
@@ -2159,15 +2163,15 @@
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
-      <c r="L10" s="42" t="str">
+      <c r="L10" s="88" t="str">
         <f>IF(LEN(I10)&gt;0,I10,"")</f>
         <v/>
       </c>
-      <c r="M10" s="57" t="str">
+      <c r="M10" s="64" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="58"/>
+      <c r="N10" s="65"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="45" t="str">
@@ -2178,15 +2182,15 @@
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
-      <c r="E11" s="50" t="str">
+      <c r="E11" s="72" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="42" t="str">
+      <c r="F11" s="72"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="72"/>
+      <c r="I11" s="88" t="str">
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
@@ -2198,15 +2202,15 @@
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
-      <c r="L11" s="42" t="str">
+      <c r="L11" s="88" t="str">
         <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
         <v/>
       </c>
-      <c r="M11" s="57" t="str">
+      <c r="M11" s="64" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="58"/>
+      <c r="N11" s="65"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="45" t="str">
@@ -2217,15 +2221,15 @@
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
-      <c r="E12" s="50" t="str">
+      <c r="E12" s="72" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="50"/>
-      <c r="G12" s="50"/>
-      <c r="H12" s="50"/>
-      <c r="I12" s="42" t="str">
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="88" t="str">
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
@@ -2237,15 +2241,15 @@
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
-      <c r="L12" s="42" t="str">
+      <c r="L12" s="88" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M12" s="57" t="str">
+      <c r="M12" s="64" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="58"/>
+      <c r="N12" s="65"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="45" t="str">
@@ -2256,15 +2260,15 @@
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
-      <c r="E13" s="50" t="str">
+      <c r="E13" s="72" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="50"/>
-      <c r="I13" s="42" t="str">
+      <c r="F13" s="72"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="72"/>
+      <c r="I13" s="88" t="str">
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
@@ -2276,15 +2280,15 @@
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
-      <c r="L13" s="42" t="str">
+      <c r="L13" s="88" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M13" s="57" t="str">
+      <c r="M13" s="64" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="58"/>
+      <c r="N13" s="65"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="45" t="str">
@@ -2295,15 +2299,15 @@
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
-      <c r="E14" s="50" t="str">
+      <c r="E14" s="72" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="50"/>
-      <c r="I14" s="42" t="str">
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="88" t="str">
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
@@ -2315,15 +2319,15 @@
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="42" t="str">
+      <c r="L14" s="88" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M14" s="57" t="str">
+      <c r="M14" s="64" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="58"/>
+      <c r="N14" s="65"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="45" t="str">
@@ -2334,15 +2338,15 @@
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
-      <c r="E15" s="50" t="str">
+      <c r="E15" s="72" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="50"/>
-      <c r="G15" s="50"/>
-      <c r="H15" s="50"/>
-      <c r="I15" s="42" t="str">
+      <c r="F15" s="72"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="72"/>
+      <c r="I15" s="88" t="str">
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
@@ -2354,15 +2358,15 @@
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
-      <c r="L15" s="42" t="str">
+      <c r="L15" s="88" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M15" s="57" t="str">
+      <c r="M15" s="64" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="58"/>
+      <c r="N15" s="65"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2375,18 +2379,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="78"/>
-      <c r="N16" s="79"/>
+      <c r="M16" s="66"/>
+      <c r="N16" s="67"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="63" t="str">
+      <c r="C17" s="49" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="64"/>
-      <c r="E17" s="64"/>
-      <c r="F17" s="65"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="51"/>
       <c r="G17" s="41" t="s">
         <v>132</v>
       </c>
@@ -2394,101 +2398,101 @@
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="72">
+      <c r="I17" s="58">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="73"/>
+      <c r="J17" s="59"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="61" t="s">
+      <c r="L17" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="80">
+      <c r="M17" s="68">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="81"/>
+      <c r="N17" s="69"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="66"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="68"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="2"/>
       <c r="H18" s="43" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="74"/>
-      <c r="J18" s="75"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="82"/>
-      <c r="N18" s="83"/>
+      <c r="L18" s="48"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="71"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="66"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="68"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="54"/>
       <c r="G19" s="2"/>
       <c r="H19" s="43" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="74"/>
-      <c r="J19" s="75"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="66"/>
-      <c r="D20" s="67"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="68"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="2"/>
       <c r="H20" s="43" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="74"/>
-      <c r="J20" s="75"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="66"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="68"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="54"/>
       <c r="G21" s="2"/>
       <c r="H21" s="43" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="74"/>
-      <c r="J21" s="75"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="69"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="71"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="1"/>
       <c r="H22" s="43" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2516,14 +2520,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2534,14 +2538,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2957,7 +2961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5954158D-5AB1-4F08-9031-44B4C4D9B5C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975F34D-4F2D-4162-97E9-42A6CC76F343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
   <si>
     <t>弊社注文書No</t>
     <rPh sb="0" eb="2">
@@ -1104,6 +1104,20 @@
   <si>
     <t xml:space="preserve">
 </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一個単価</t>
+    <rPh sb="0" eb="2">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>stroneproductprice</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1482,6 +1496,51 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1534,12 +1593,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1557,42 +1610,6 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1603,9 +1620,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1976,7 +1990,7 @@
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10:N15"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2011,39 +2025,39 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="73">
+      <c r="L3" s="54">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="74"/>
+      <c r="M3" s="55"/>
       <c r="N3" s="11"/>
     </row>
     <row r="4" spans="3:14" ht="12.45" customHeight="1">
-      <c r="C4" s="79"/>
+      <c r="C4" s="48"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="80" t="s">
+      <c r="F4" s="49" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="81">
+      <c r="H4" s="50">
         <f>データ設定用!H3</f>
         <v>0</v>
       </c>
-      <c r="I4" s="81"/>
+      <c r="I4" s="50"/>
       <c r="J4" s="3"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9"/>
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="3:14" ht="14.7" customHeight="1">
-      <c r="C5" s="79"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="80"/>
+      <c r="F5" s="49"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -2058,18 +2072,18 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="83">
+      <c r="H6" s="53">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="I6" s="81"/>
-      <c r="J6" s="77" t="s">
+      <c r="I6" s="50"/>
+      <c r="J6" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="78"/>
-      <c r="L6" s="78"/>
-      <c r="M6" s="78"/>
-      <c r="N6" s="78"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
     </row>
     <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
       <c r="C7" s="2"/>
@@ -2079,16 +2093,16 @@
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
-      <c r="H7" s="81">
+      <c r="H7" s="50">
         <f>データ設定用!R3</f>
         <v>0</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="78"/>
-      <c r="K7" s="78"/>
-      <c r="L7" s="78"/>
-      <c r="M7" s="78"/>
-      <c r="N7" s="78"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2111,12 +2125,12 @@
       <c r="D9" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="82" t="s">
+      <c r="E9" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
       <c r="I9" s="6" t="s">
         <v>1</v>
       </c>
@@ -2129,10 +2143,10 @@
       <c r="L9" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="75" t="s">
+      <c r="M9" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="76"/>
+      <c r="N9" s="57"/>
     </row>
     <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C10" s="45" t="str">
@@ -2143,16 +2157,16 @@
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
-      <c r="E10" s="72" t="str">
+      <c r="E10" s="51" t="str">
         <f>CONCATENATE(データ設定用!K6,CHAR(10),データ設定用!G6,"　",データ設定用!S6)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F10" s="72"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="88" t="str">
-        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="47" t="str">
+        <f>IF(LEN(データ設定用!T6)&gt;0,データ設定用!T6,"")</f>
         <v/>
       </c>
       <c r="J10" s="42" t="str">
@@ -2163,15 +2177,15 @@
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
-      <c r="L10" s="88" t="str">
-        <f>IF(LEN(I10)&gt;0,I10,"")</f>
-        <v/>
-      </c>
-      <c r="M10" s="64" t="str">
+      <c r="L10" s="47" t="str">
+        <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
+        <v/>
+      </c>
+      <c r="M10" s="58" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="65"/>
+      <c r="N10" s="59"/>
     </row>
     <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C11" s="45" t="str">
@@ -2182,16 +2196,16 @@
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
-      <c r="E11" s="72" t="str">
+      <c r="E11" s="51" t="str">
         <f>CONCATENATE(データ設定用!K7,CHAR(10),データ設定用!G7,"　",データ設定用!S7)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F11" s="72"/>
-      <c r="G11" s="72"/>
-      <c r="H11" s="72"/>
-      <c r="I11" s="88" t="str">
-        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="47" t="str">
+        <f>IF(LEN(データ設定用!T7)&gt;0,データ設定用!T7,"")</f>
         <v/>
       </c>
       <c r="J11" s="42" t="str">
@@ -2202,15 +2216,15 @@
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
-      <c r="L11" s="88" t="str">
-        <f t="shared" ref="L11:L15" si="0">IF(LEN(I11)&gt;0,I11,"")</f>
-        <v/>
-      </c>
-      <c r="M11" s="64" t="str">
+      <c r="L11" s="47" t="str">
+        <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
+        <v/>
+      </c>
+      <c r="M11" s="58" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="65"/>
+      <c r="N11" s="59"/>
     </row>
     <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C12" s="45" t="str">
@@ -2221,16 +2235,16 @@
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
-      <c r="E12" s="72" t="str">
+      <c r="E12" s="51" t="str">
         <f>CONCATENATE(データ設定用!K8,CHAR(10),データ設定用!G8,"　",データ設定用!S8)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F12" s="72"/>
-      <c r="G12" s="72"/>
-      <c r="H12" s="72"/>
-      <c r="I12" s="88" t="str">
-        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="47" t="str">
+        <f>IF(LEN(データ設定用!T8)&gt;0,データ設定用!T8,"")</f>
         <v/>
       </c>
       <c r="J12" s="42" t="str">
@@ -2241,15 +2255,15 @@
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
-      <c r="L12" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M12" s="64" t="str">
+      <c r="L12" s="47" t="str">
+        <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
+        <v/>
+      </c>
+      <c r="M12" s="58" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="65"/>
+      <c r="N12" s="59"/>
     </row>
     <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C13" s="45" t="str">
@@ -2260,16 +2274,16 @@
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
-      <c r="E13" s="72" t="str">
+      <c r="E13" s="51" t="str">
         <f>CONCATENATE(データ設定用!K9,CHAR(10),データ設定用!G9,"　",データ設定用!S9)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F13" s="72"/>
-      <c r="G13" s="72"/>
-      <c r="H13" s="72"/>
-      <c r="I13" s="88" t="str">
-        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="47" t="str">
+        <f>IF(LEN(データ設定用!T9)&gt;0,データ設定用!T9,"")</f>
         <v/>
       </c>
       <c r="J13" s="42" t="str">
@@ -2280,15 +2294,15 @@
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
-      <c r="L13" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M13" s="64" t="str">
+      <c r="L13" s="47" t="str">
+        <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
+        <v/>
+      </c>
+      <c r="M13" s="58" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="65"/>
+      <c r="N13" s="59"/>
     </row>
     <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C14" s="45" t="str">
@@ -2299,16 +2313,16 @@
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
-      <c r="E14" s="72" t="str">
+      <c r="E14" s="51" t="str">
         <f>CONCATENATE(データ設定用!K10,CHAR(10),データ設定用!G10,"　",データ設定用!S10)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F14" s="72"/>
-      <c r="G14" s="72"/>
-      <c r="H14" s="72"/>
-      <c r="I14" s="88" t="str">
-        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="47" t="str">
+        <f>IF(LEN(データ設定用!T10)&gt;0,データ設定用!T10,"")</f>
         <v/>
       </c>
       <c r="J14" s="42" t="str">
@@ -2319,15 +2333,15 @@
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
-      <c r="L14" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M14" s="64" t="str">
+      <c r="L14" s="47" t="str">
+        <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
+        <v/>
+      </c>
+      <c r="M14" s="58" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="65"/>
+      <c r="N14" s="59"/>
     </row>
     <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
       <c r="C15" s="45" t="str">
@@ -2338,16 +2352,16 @@
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
-      <c r="E15" s="72" t="str">
+      <c r="E15" s="51" t="str">
         <f>CONCATENATE(データ設定用!K11,CHAR(10),データ設定用!G11,"　",データ設定用!S11)</f>
         <v xml:space="preserve">
 　</v>
       </c>
-      <c r="F15" s="72"/>
-      <c r="G15" s="72"/>
-      <c r="H15" s="72"/>
-      <c r="I15" s="88" t="str">
-        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="47" t="str">
+        <f>IF(LEN(データ設定用!T11)&gt;0,データ設定用!T11,"")</f>
         <v/>
       </c>
       <c r="J15" s="42" t="str">
@@ -2358,15 +2372,15 @@
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
-      <c r="L15" s="88" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="M15" s="64" t="str">
+      <c r="L15" s="47" t="str">
+        <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
+        <v/>
+      </c>
+      <c r="M15" s="58" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="65"/>
+      <c r="N15" s="59"/>
     </row>
     <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
       <c r="C16" s="9"/>
@@ -2379,18 +2393,18 @@
       <c r="J16" s="9"/>
       <c r="K16" s="9"/>
       <c r="L16" s="10"/>
-      <c r="M16" s="66"/>
-      <c r="N16" s="67"/>
+      <c r="M16" s="79"/>
+      <c r="N16" s="80"/>
     </row>
     <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="49" t="str">
+      <c r="C17" s="64" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-      <c r="F17" s="51"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="66"/>
       <c r="G17" s="41" t="s">
         <v>132</v>
       </c>
@@ -2398,101 +2412,101 @@
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="58">
+      <c r="I17" s="73">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="59"/>
+      <c r="J17" s="74"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="47" t="s">
+      <c r="L17" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="68">
+      <c r="M17" s="81">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="69"/>
+      <c r="N17" s="82"/>
     </row>
     <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="52"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
       <c r="G18" s="2"/>
       <c r="H18" s="43" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="60"/>
-      <c r="J18" s="61"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="76"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="71"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="84"/>
     </row>
     <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="52"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="54"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
       <c r="G19" s="2"/>
       <c r="H19" s="43" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="60"/>
-      <c r="J19" s="61"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
     <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="52"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
       <c r="G20" s="2"/>
       <c r="H20" s="43" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="60"/>
-      <c r="J20" s="61"/>
+      <c r="I20" s="75"/>
+      <c r="J20" s="76"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
     <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="52"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="54"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
       <c r="G21" s="2"/>
       <c r="H21" s="43" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="60"/>
-      <c r="J21" s="61"/>
+      <c r="I21" s="75"/>
+      <c r="J21" s="76"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
     <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="55"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="57"/>
+      <c r="C22" s="70"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="72"/>
       <c r="G22" s="1"/>
       <c r="H22" s="43" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="78"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2520,14 +2534,14 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:I5"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="L17:L18"/>
+    <mergeCell ref="C17:F22"/>
+    <mergeCell ref="I17:J22"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N18"/>
+    <mergeCell ref="E15:H15"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="M10:N10"/>
@@ -2538,14 +2552,14 @@
     <mergeCell ref="J6:N7"/>
     <mergeCell ref="M12:N12"/>
     <mergeCell ref="M13:N13"/>
-    <mergeCell ref="L17:L18"/>
-    <mergeCell ref="C17:F22"/>
-    <mergeCell ref="I17:J22"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N18"/>
-    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:I5"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
@@ -2578,30 +2592,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="87" t="str">
+      <c r="B2" s="88" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="87" t="str">
+      <c r="B3" s="88" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="88"/>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
       <c r="B4" s="14"/>
@@ -2614,12 +2628,12 @@
     <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
       <c r="B5" s="15"/>
       <c r="C5" s="15"/>
-      <c r="D5" s="84" t="s">
+      <c r="D5" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
     </row>
     <row r="7" spans="1:11" ht="20.7" customHeight="1">
       <c r="D7" s="16" t="s">
@@ -2635,12 +2649,12 @@
       <c r="D9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="85">
+      <c r="E9" s="86">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="85"/>
-      <c r="G9" s="85"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
     </row>
     <row r="10" spans="1:11" ht="10.95" customHeight="1">
       <c r="D10" s="18"/>
@@ -2909,10 +2923,10 @@
       <c r="K18" s="20"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="86" t="s">
+      <c r="G19" s="87" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="86"/>
+      <c r="H19" s="87"/>
       <c r="I19" s="30" t="s">
         <v>27</v>
       </c>
@@ -2961,8 +2975,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AE11" sqref="AE11"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3293,6 +3307,9 @@
       <c r="S4" t="s">
         <v>90</v>
       </c>
+      <c r="T4" s="33" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
@@ -3348,6 +3365,9 @@
       </c>
       <c r="S5" t="s">
         <v>58</v>
+      </c>
+      <c r="T5" s="33" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:39">

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\クワガタ\02_不具合\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0975F34D-4F2D-4162-97E9-42A6CC76F343}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49065E98-58E7-4E82-8E09-67D309A69585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1406,7 +1406,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1415,9 +1415,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,6 +1493,9 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1511,9 +1511,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1523,10 +1520,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1989,30 +1986,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:N23"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="1.21875" customWidth="1"/>
+    <col min="1" max="1" width="1.109375" customWidth="1"/>
     <col min="2" max="2" width="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" customWidth="1"/>
     <col min="5" max="5" width="4.88671875" customWidth="1"/>
     <col min="6" max="6" width="9.88671875" customWidth="1"/>
     <col min="7" max="7" width="6.33203125" customWidth="1"/>
     <col min="8" max="8" width="21" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" customWidth="1"/>
-    <col min="10" max="10" width="7.21875" customWidth="1"/>
+    <col min="9" max="9" width="12.109375" customWidth="1"/>
+    <col min="10" max="10" width="7.109375" customWidth="1"/>
     <col min="11" max="11" width="14.109375" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
     <col min="13" max="13" width="9.44140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:14" ht="13.95" customHeight="1"/>
-    <row r="2" spans="3:14" ht="34.200000000000003" customHeight="1"/>
+    <row r="1" spans="3:14" ht="14.1" customHeight="1"/>
+    <row r="2" spans="3:14" ht="34.35" customHeight="1"/>
     <row r="3" spans="3:14" ht="16.2">
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -2025,14 +2022,14 @@
       <c r="K3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="54">
+      <c r="L3" s="53">
         <f>データ設定用!AF3</f>
         <v>0</v>
       </c>
-      <c r="M3" s="55"/>
-      <c r="N3" s="11"/>
-    </row>
-    <row r="4" spans="3:14" ht="12.45" customHeight="1">
+      <c r="M3" s="54"/>
+      <c r="N3" s="10"/>
+    </row>
+    <row r="4" spans="3:14" ht="12.6" customHeight="1">
       <c r="C4" s="48"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -2046,11 +2043,11 @@
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="3"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
       <c r="N4" s="2"/>
     </row>
-    <row r="5" spans="3:14" ht="14.7" customHeight="1">
+    <row r="5" spans="3:14" ht="14.85" customHeight="1">
       <c r="C5" s="48"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
@@ -2064,7 +2061,7 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
     </row>
-    <row r="6" spans="3:14" ht="35.700000000000003" customHeight="1">
+    <row r="6" spans="3:14" ht="35.85" customHeight="1">
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -2072,24 +2069,24 @@
         <v>14</v>
       </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="53">
+      <c r="H6" s="52">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
       <c r="I6" s="50"/>
-      <c r="J6" s="60" t="s">
+      <c r="J6" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-    </row>
-    <row r="7" spans="3:14" ht="33.450000000000003" customHeight="1">
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="60"/>
+    </row>
+    <row r="7" spans="3:14" ht="33.6" customHeight="1">
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>9</v>
       </c>
       <c r="G7" s="3"/>
@@ -2098,11 +2095,11 @@
         <v>0</v>
       </c>
       <c r="I7" s="50"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
+      <c r="J7" s="60"/>
+      <c r="K7" s="60"/>
+      <c r="L7" s="60"/>
+      <c r="M7" s="60"/>
+      <c r="N7" s="60"/>
     </row>
     <row r="8" spans="3:14" ht="21" customHeight="1">
       <c r="C8" s="2"/>
@@ -2118,42 +2115,42 @@
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
     </row>
-    <row r="9" spans="3:14" ht="24.45" customHeight="1">
-      <c r="C9" s="6" t="s">
+    <row r="9" spans="3:14" ht="24.6" customHeight="1">
+      <c r="C9" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="6" t="s">
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="J9" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="56" t="s">
+      <c r="M9" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="N9" s="57"/>
-    </row>
-    <row r="10" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C10" s="45" t="str">
+      <c r="N9" s="56"/>
+    </row>
+    <row r="10" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C10" s="44" t="str">
         <f>IF(データ設定用!E6="","",データ設定用!E6)</f>
         <v/>
       </c>
-      <c r="D10" s="10" t="str">
+      <c r="D10" s="9" t="str">
         <f>IF(データ設定用!H6="","",データ設定用!H6)</f>
         <v/>
       </c>
@@ -2169,11 +2166,11 @@
         <f>IF(LEN(データ設定用!T6)&gt;0,データ設定用!T6,"")</f>
         <v/>
       </c>
-      <c r="J10" s="42" t="str">
+      <c r="J10" s="41" t="str">
         <f>IF(LEN(データ設定用!N6)&gt;0,データ設定用!N6,"")</f>
         <v/>
       </c>
-      <c r="K10" s="42" t="str">
+      <c r="K10" s="41" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,CONCATENATE(TEXT(データ設定用!O6,"0"),データ設定用!Q6),"")</f>
         <v/>
       </c>
@@ -2181,18 +2178,18 @@
         <f>IF(LEN(データ設定用!M6)&gt;0,データ設定用!M6,"")</f>
         <v/>
       </c>
-      <c r="M10" s="58" t="str">
+      <c r="M10" s="57" t="str">
         <f>IF(LEN(データ設定用!R6)&gt;0,データ設定用!R6,"")</f>
         <v/>
       </c>
-      <c r="N10" s="59"/>
-    </row>
-    <row r="11" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C11" s="45" t="str">
+      <c r="N10" s="58"/>
+    </row>
+    <row r="11" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C11" s="44" t="str">
         <f>IF(データ設定用!E7 = "","",データ設定用!E7)</f>
         <v/>
       </c>
-      <c r="D11" s="44" t="str">
+      <c r="D11" s="43" t="str">
         <f>IF(データ設定用!H7="","",データ設定用!H7)</f>
         <v/>
       </c>
@@ -2208,11 +2205,11 @@
         <f>IF(LEN(データ設定用!T7)&gt;0,データ設定用!T7,"")</f>
         <v/>
       </c>
-      <c r="J11" s="42" t="str">
+      <c r="J11" s="41" t="str">
         <f>IF(LEN(データ設定用!N7)&gt;0,データ設定用!N7,"")</f>
         <v/>
       </c>
-      <c r="K11" s="42" t="str">
+      <c r="K11" s="41" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,CONCATENATE(TEXT(データ設定用!O7,"0"),データ設定用!Q7),"")</f>
         <v/>
       </c>
@@ -2220,18 +2217,18 @@
         <f>IF(LEN(データ設定用!M7)&gt;0,データ設定用!M7,"")</f>
         <v/>
       </c>
-      <c r="M11" s="58" t="str">
+      <c r="M11" s="57" t="str">
         <f>IF(LEN(データ設定用!R7)&gt;0,データ設定用!R7,"")</f>
         <v/>
       </c>
-      <c r="N11" s="59"/>
-    </row>
-    <row r="12" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C12" s="45" t="str">
+      <c r="N11" s="58"/>
+    </row>
+    <row r="12" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C12" s="44" t="str">
         <f>IF(データ設定用!E8 = "","",データ設定用!E8)</f>
         <v/>
       </c>
-      <c r="D12" s="44" t="str">
+      <c r="D12" s="43" t="str">
         <f>IF(データ設定用!H8="","",データ設定用!H8)</f>
         <v/>
       </c>
@@ -2247,11 +2244,11 @@
         <f>IF(LEN(データ設定用!T8)&gt;0,データ設定用!T8,"")</f>
         <v/>
       </c>
-      <c r="J12" s="42" t="str">
+      <c r="J12" s="41" t="str">
         <f>IF(LEN(データ設定用!N8)&gt;0,データ設定用!N8,"")</f>
         <v/>
       </c>
-      <c r="K12" s="42" t="str">
+      <c r="K12" s="41" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,CONCATENATE(TEXT(データ設定用!O8,"0"),データ設定用!Q8),"")</f>
         <v/>
       </c>
@@ -2259,18 +2256,18 @@
         <f>IF(LEN(データ設定用!M8)&gt;0,データ設定用!M8,"")</f>
         <v/>
       </c>
-      <c r="M12" s="58" t="str">
+      <c r="M12" s="57" t="str">
         <f>IF(LEN(データ設定用!R8)&gt;0,データ設定用!R8,"")</f>
         <v/>
       </c>
-      <c r="N12" s="59"/>
-    </row>
-    <row r="13" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C13" s="45" t="str">
+      <c r="N12" s="58"/>
+    </row>
+    <row r="13" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C13" s="44" t="str">
         <f>IF(データ設定用!E9 = "","",データ設定用!E9)</f>
         <v/>
       </c>
-      <c r="D13" s="44" t="str">
+      <c r="D13" s="43" t="str">
         <f>IF(データ設定用!H9="","",データ設定用!H9)</f>
         <v/>
       </c>
@@ -2286,11 +2283,11 @@
         <f>IF(LEN(データ設定用!T9)&gt;0,データ設定用!T9,"")</f>
         <v/>
       </c>
-      <c r="J13" s="42" t="str">
+      <c r="J13" s="41" t="str">
         <f>IF(LEN(データ設定用!N9)&gt;0,データ設定用!N9,"")</f>
         <v/>
       </c>
-      <c r="K13" s="42" t="str">
+      <c r="K13" s="41" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,CONCATENATE(TEXT(データ設定用!O9,"0"),データ設定用!Q9),"")</f>
         <v/>
       </c>
@@ -2298,18 +2295,18 @@
         <f>IF(LEN(データ設定用!M9)&gt;0,データ設定用!M9,"")</f>
         <v/>
       </c>
-      <c r="M13" s="58" t="str">
+      <c r="M13" s="57" t="str">
         <f>IF(LEN(データ設定用!R9)&gt;0,データ設定用!R9,"")</f>
         <v/>
       </c>
-      <c r="N13" s="59"/>
-    </row>
-    <row r="14" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C14" s="45" t="str">
+      <c r="N13" s="58"/>
+    </row>
+    <row r="14" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C14" s="44" t="str">
         <f>IF(データ設定用!E10 = "","",データ設定用!E10)</f>
         <v/>
       </c>
-      <c r="D14" s="44" t="str">
+      <c r="D14" s="43" t="str">
         <f>IF(データ設定用!H10="","",データ設定用!H10)</f>
         <v/>
       </c>
@@ -2325,11 +2322,11 @@
         <f>IF(LEN(データ設定用!T10)&gt;0,データ設定用!T10,"")</f>
         <v/>
       </c>
-      <c r="J14" s="42" t="str">
+      <c r="J14" s="41" t="str">
         <f>IF(LEN(データ設定用!N10)&gt;0,データ設定用!N10,"")</f>
         <v/>
       </c>
-      <c r="K14" s="42" t="str">
+      <c r="K14" s="41" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,CONCATENATE(TEXT(データ設定用!O10,"0"),データ設定用!Q10),"")</f>
         <v/>
       </c>
@@ -2337,18 +2334,18 @@
         <f>IF(LEN(データ設定用!M10)&gt;0,データ設定用!M10,"")</f>
         <v/>
       </c>
-      <c r="M14" s="58" t="str">
+      <c r="M14" s="57" t="str">
         <f>IF(LEN(データ設定用!R10)&gt;0,データ設定用!R10,"")</f>
         <v/>
       </c>
-      <c r="N14" s="59"/>
-    </row>
-    <row r="15" spans="3:14" ht="34.950000000000003" customHeight="1">
-      <c r="C15" s="45" t="str">
+      <c r="N14" s="58"/>
+    </row>
+    <row r="15" spans="3:14" ht="35.1" customHeight="1">
+      <c r="C15" s="44" t="str">
         <f>IF(データ設定用!E11 = "","",データ設定用!E11)</f>
         <v/>
       </c>
-      <c r="D15" s="44" t="str">
+      <c r="D15" s="43" t="str">
         <f>IF(データ設定用!H11="","",データ設定用!H11)</f>
         <v/>
       </c>
@@ -2364,11 +2361,11 @@
         <f>IF(LEN(データ設定用!T11)&gt;0,データ設定用!T11,"")</f>
         <v/>
       </c>
-      <c r="J15" s="42" t="str">
+      <c r="J15" s="41" t="str">
         <f>IF(LEN(データ設定用!N11)&gt;0,データ設定用!N11,"")</f>
         <v/>
       </c>
-      <c r="K15" s="42" t="str">
+      <c r="K15" s="41" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,CONCATENATE(TEXT(データ設定用!O11,"0"),データ設定用!Q11),"")</f>
         <v/>
       </c>
@@ -2376,137 +2373,137 @@
         <f>IF(LEN(データ設定用!M11)&gt;0,データ設定用!M11,"")</f>
         <v/>
       </c>
-      <c r="M15" s="58" t="str">
+      <c r="M15" s="57" t="str">
         <f>IF(LEN(データ設定用!R11)&gt;0,データ設定用!R11,"")</f>
         <v/>
       </c>
-      <c r="N15" s="59"/>
-    </row>
-    <row r="16" spans="3:14" ht="9.4499999999999993" customHeight="1">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="79"/>
-      <c r="N16" s="80"/>
-    </row>
-    <row r="17" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C17" s="64" t="str">
+      <c r="N15" s="58"/>
+    </row>
+    <row r="16" spans="3:14" ht="9.6" customHeight="1">
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="78"/>
+      <c r="N16" s="79"/>
+    </row>
+    <row r="17" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C17" s="63" t="str">
         <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="41" t="s">
+      <c r="D17" s="64"/>
+      <c r="E17" s="64"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="40" t="s">
         <v>132</v>
       </c>
-      <c r="H17" s="43" t="str">
+      <c r="H17" s="42" t="str">
         <f>IF(LEN(データ設定用!I6)&gt;0,CONCATENATE(データ設定用!I6,"_",データ設定用!J6),"")</f>
         <v/>
       </c>
-      <c r="I17" s="73">
+      <c r="I17" s="72">
         <f>データ設定用!U3</f>
         <v>0</v>
       </c>
-      <c r="J17" s="74"/>
+      <c r="J17" s="73"/>
       <c r="K17" s="2"/>
-      <c r="L17" s="62" t="s">
+      <c r="L17" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="M17" s="81">
+      <c r="M17" s="80">
         <f>データ設定用!V3</f>
         <v>0</v>
       </c>
-      <c r="N17" s="82"/>
-    </row>
-    <row r="18" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
+      <c r="N17" s="81"/>
+    </row>
+    <row r="18" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C18" s="66"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="68"/>
       <c r="G18" s="2"/>
-      <c r="H18" s="43" t="str">
+      <c r="H18" s="42" t="str">
         <f>IF(LEN(データ設定用!I7)&gt;0,CONCATENATE(データ設定用!I7,"_",データ設定用!J7),"")</f>
         <v/>
       </c>
-      <c r="I18" s="75"/>
-      <c r="J18" s="76"/>
+      <c r="I18" s="74"/>
+      <c r="J18" s="75"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="83"/>
-      <c r="N18" s="84"/>
-    </row>
-    <row r="19" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="82"/>
+      <c r="N18" s="83"/>
+    </row>
+    <row r="19" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C19" s="66"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
+      <c r="F19" s="68"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="43" t="str">
+      <c r="H19" s="42" t="str">
         <f>IF(LEN(データ設定用!I8)&gt;0,CONCATENATE(データ設定用!I8,"_",データ設定用!J8),"")</f>
         <v/>
       </c>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="I19" s="74"/>
+      <c r="J19" s="75"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
     </row>
-    <row r="20" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C20" s="67"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
+    <row r="20" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C20" s="66"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="43" t="str">
+      <c r="H20" s="42" t="str">
         <f>IF(LEN(データ設定用!I9)&gt;0,CONCATENATE(データ設定用!I9,"_",データ設定用!J9),"")</f>
         <v/>
       </c>
-      <c r="I20" s="75"/>
-      <c r="J20" s="76"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="75"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
     </row>
-    <row r="21" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C21" s="67"/>
-      <c r="D21" s="68"/>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
+    <row r="21" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C21" s="66"/>
+      <c r="D21" s="67"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="68"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="43" t="str">
+      <c r="H21" s="42" t="str">
         <f>IF(LEN(データ設定用!I10)&gt;0,CONCATENATE(データ設定用!I10,"_",データ設定用!J10),"")</f>
         <v/>
       </c>
-      <c r="I21" s="75"/>
-      <c r="J21" s="76"/>
+      <c r="I21" s="74"/>
+      <c r="J21" s="75"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
     </row>
-    <row r="22" spans="3:14" ht="13.2" customHeight="1">
-      <c r="C22" s="70"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="72"/>
+    <row r="22" spans="3:14" ht="13.35" customHeight="1">
+      <c r="C22" s="69"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="43" t="str">
+      <c r="H22" s="42" t="str">
         <f>IF(LEN(データ設定用!I11)&gt;0,CONCATENATE(データ設定用!I11,"_",データ設定用!J11),"")</f>
         <v/>
       </c>
-      <c r="I22" s="77"/>
-      <c r="J22" s="78"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
@@ -2516,15 +2513,15 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="7" t="s">
+      <c r="F23" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G23" s="36" t="str">
+      <c r="G23" s="35" t="str">
         <f>IF(LEN(データ設定用!AM1)&gt;0,TEXT(データ設定用!AM1,"0"),"")</f>
         <v xml:space="preserve">
 </v>
       </c>
-      <c r="H23" s="8"/>
+      <c r="H23" s="7"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2563,7 +2560,7 @@
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.51181102362204722" bottom="0" header="0" footer="0"/>
-  <pageSetup paperSize="211" scale="73" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="258" scale="73" fitToWidth="0" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
@@ -2578,381 +2575,381 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="12" customWidth="1"/>
-    <col min="2" max="2" width="16" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="12" customWidth="1"/>
-    <col min="4" max="4" width="31.44140625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" style="12" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="12"/>
-    <col min="7" max="7" width="11.44140625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="16.21875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" style="12" customWidth="1"/>
-    <col min="10" max="10" width="2.33203125" style="12" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="12"/>
+    <col min="1" max="1" width="3" style="11" customWidth="1"/>
+    <col min="2" max="2" width="16" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="31.44140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="11.109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="11"/>
+    <col min="7" max="7" width="11.44140625" style="11" customWidth="1"/>
+    <col min="8" max="8" width="16.109375" style="11" customWidth="1"/>
+    <col min="9" max="9" width="18.88671875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="2.33203125" style="11" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="15.45" customHeight="1">
-      <c r="B2" s="88" t="str">
+    <row r="2" spans="1:11" ht="15.6" customHeight="1">
+      <c r="B2" s="87" t="str">
         <f>CONCATENATE(データ設定用!G3,"　",データ設定用!H3,"　",データ設定用!O3,"様")</f>
         <v>　　様</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="B3" s="88" t="str">
+      <c r="B3" s="87" t="str">
         <f>CONCATENATE(データ設定用!R3,"　",データ設定用!S3,"様")</f>
         <v>　様</v>
       </c>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
     </row>
     <row r="4" spans="1:11" ht="9" customHeight="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-    </row>
-    <row r="5" spans="1:11" ht="30.45" customHeight="1" thickBot="1">
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="85" t="s">
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:11" ht="30.6" customHeight="1" thickBot="1">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-    </row>
-    <row r="7" spans="1:11" ht="20.7" customHeight="1">
-      <c r="D7" s="16" t="s">
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+    </row>
+    <row r="7" spans="1:11" ht="20.85" customHeight="1">
+      <c r="D7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:11" ht="7.5" customHeight="1">
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-    </row>
-    <row r="9" spans="1:11" ht="25.95" customHeight="1" thickBot="1">
-      <c r="D9" s="17" t="s">
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:11" ht="26.1" customHeight="1" thickBot="1">
+      <c r="D9" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="86">
+      <c r="E9" s="85">
         <f>データ設定用!P3</f>
         <v>0</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-    </row>
-    <row r="10" spans="1:11" ht="10.95" customHeight="1">
-      <c r="D10" s="18"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+    </row>
+    <row r="10" spans="1:11" ht="11.1" customHeight="1">
+      <c r="D10" s="17"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
     </row>
     <row r="11" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22" t="s">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="23" t="s">
+      <c r="D11" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="23" t="s">
+      <c r="E11" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F11" s="23" t="s">
+      <c r="F11" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="23" t="s">
+      <c r="G11" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="I11" s="24" t="s">
+      <c r="I11" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="20"/>
-    </row>
-    <row r="12" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A12" s="21">
+      <c r="J11" s="24"/>
+      <c r="K11" s="19"/>
+    </row>
+    <row r="12" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A12" s="20">
         <v>1</v>
       </c>
-      <c r="B12" s="26" t="str">
+      <c r="B12" s="25" t="str">
         <f>IF(LEN(納品書!C10)&gt;0,納品書!C10,"")</f>
         <v/>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="26" t="str">
         <f>IF(LEN(納品書!D10)&gt;0,納品書!D10,"")</f>
         <v/>
       </c>
-      <c r="D12" s="27" t="str">
+      <c r="D12" s="26" t="str">
         <f>IF(LEN(データ設定用!K6)&gt;0,データ設定用!K6,"")</f>
         <v/>
       </c>
-      <c r="E12" s="27" t="str">
+      <c r="E12" s="26" t="str">
         <f>IF(LEN(データ設定用!O6)&gt;0,データ設定用!O6,"")</f>
         <v/>
       </c>
-      <c r="F12" s="27" t="str">
+      <c r="F12" s="26" t="str">
         <f>IF(LEN(データ設定用!Q6)&gt;0,データ設定用!Q6,"")</f>
         <v/>
       </c>
-      <c r="G12" s="27"/>
-      <c r="H12" s="38" t="str">
+      <c r="G12" s="26"/>
+      <c r="H12" s="37" t="str">
         <f>IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I12" s="28" t="str">
+      <c r="I12" s="27" t="str">
         <f>IF(LEN(D12)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J12" s="25"/>
-      <c r="K12" s="20"/>
-    </row>
-    <row r="13" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A13" s="21">
+      <c r="J12" s="24"/>
+      <c r="K12" s="19"/>
+    </row>
+    <row r="13" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A13" s="20">
         <v>2</v>
       </c>
-      <c r="B13" s="26" t="str">
+      <c r="B13" s="25" t="str">
         <f>IF(LEN(納品書!C11)&gt;0,納品書!C11,"")</f>
         <v/>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="26" t="str">
         <f>IF(LEN(納品書!D11)&gt;0,納品書!D11,"")</f>
         <v/>
       </c>
-      <c r="D13" s="27" t="str">
+      <c r="D13" s="26" t="str">
         <f>IF(LEN(データ設定用!K7)&gt;0,データ設定用!K7,"")</f>
         <v/>
       </c>
-      <c r="E13" s="27" t="str">
+      <c r="E13" s="26" t="str">
         <f>IF(LEN(データ設定用!O7)&gt;0,データ設定用!O7,"")</f>
         <v/>
       </c>
-      <c r="F13" s="27" t="str">
+      <c r="F13" s="26" t="str">
         <f>IF(LEN(データ設定用!Q7)&gt;0,データ設定用!Q7,"")</f>
         <v/>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="38" t="str">
+      <c r="G13" s="26"/>
+      <c r="H13" s="37" t="str">
         <f>IF(LEN(データ設定用!G7)&gt;0,CONCATENATE(データ設定用!G7,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I13" s="28" t="str">
+      <c r="I13" s="27" t="str">
         <f>IF(LEN(D13)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A14" s="21">
+      <c r="J13" s="24"/>
+      <c r="K13" s="19"/>
+    </row>
+    <row r="14" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A14" s="20">
         <v>3</v>
       </c>
-      <c r="B14" s="26" t="str">
+      <c r="B14" s="25" t="str">
         <f>IF(LEN(納品書!C12)&gt;0,納品書!C12,"")</f>
         <v/>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="26" t="str">
         <f>IF(LEN(納品書!D12)&gt;0,納品書!D12,"")</f>
         <v/>
       </c>
-      <c r="D14" s="27" t="str">
+      <c r="D14" s="26" t="str">
         <f>IF(LEN(データ設定用!K8)&gt;0,データ設定用!K8,"")</f>
         <v/>
       </c>
-      <c r="E14" s="27" t="str">
+      <c r="E14" s="26" t="str">
         <f>IF(LEN(データ設定用!O8)&gt;0,データ設定用!O8,"")</f>
         <v/>
       </c>
-      <c r="F14" s="27" t="str">
+      <c r="F14" s="26" t="str">
         <f>IF(LEN(データ設定用!Q8)&gt;0,データ設定用!Q8,"")</f>
         <v/>
       </c>
-      <c r="G14" s="27"/>
-      <c r="H14" s="38" t="str">
+      <c r="G14" s="26"/>
+      <c r="H14" s="37" t="str">
         <f>IF(LEN(データ設定用!G8)&gt;0,CONCATENATE(データ設定用!G8,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I14" s="28" t="str">
+      <c r="I14" s="27" t="str">
         <f>IF(LEN(D14)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J14" s="25"/>
-      <c r="K14" s="20"/>
-    </row>
-    <row r="15" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A15" s="21">
+      <c r="J14" s="24"/>
+      <c r="K14" s="19"/>
+    </row>
+    <row r="15" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A15" s="20">
         <v>4</v>
       </c>
-      <c r="B15" s="26" t="str">
+      <c r="B15" s="25" t="str">
         <f>IF(LEN(納品書!C13)&gt;0,納品書!C13,"")</f>
         <v/>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="26" t="str">
         <f>IF(LEN(納品書!D13)&gt;0,納品書!D13,"")</f>
         <v/>
       </c>
-      <c r="D15" s="27" t="str">
+      <c r="D15" s="26" t="str">
         <f>IF(LEN(データ設定用!K9)&gt;0,データ設定用!K9,"")</f>
         <v/>
       </c>
-      <c r="E15" s="27" t="str">
+      <c r="E15" s="26" t="str">
         <f>IF(LEN(データ設定用!O9)&gt;0,データ設定用!O9,"")</f>
         <v/>
       </c>
-      <c r="F15" s="27" t="str">
+      <c r="F15" s="26" t="str">
         <f>IF(LEN(データ設定用!Q9)&gt;0,データ設定用!Q9,"")</f>
         <v/>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="38" t="str">
+      <c r="G15" s="26"/>
+      <c r="H15" s="37" t="str">
         <f>IF(LEN(データ設定用!G9)&gt;0,CONCATENATE(データ設定用!G9,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I15" s="28" t="str">
+      <c r="I15" s="27" t="str">
         <f>IF(LEN(D15)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J15" s="25"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A16" s="21">
+      <c r="J15" s="24"/>
+      <c r="K15" s="19"/>
+    </row>
+    <row r="16" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A16" s="20">
         <v>5</v>
       </c>
-      <c r="B16" s="26" t="str">
+      <c r="B16" s="25" t="str">
         <f>IF(LEN(納品書!C14)&gt;0,納品書!C14,"")</f>
         <v/>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="26" t="str">
         <f>IF(LEN(納品書!D14)&gt;0,納品書!D14,"")</f>
         <v/>
       </c>
-      <c r="D16" s="27" t="str">
+      <c r="D16" s="26" t="str">
         <f>IF(LEN(データ設定用!K10)&gt;0,データ設定用!K10,"")</f>
         <v/>
       </c>
-      <c r="E16" s="27" t="str">
+      <c r="E16" s="26" t="str">
         <f>IF(LEN(データ設定用!O10)&gt;0,データ設定用!O10,"")</f>
         <v/>
       </c>
-      <c r="F16" s="27" t="str">
+      <c r="F16" s="26" t="str">
         <f>IF(LEN(データ設定用!Q10)&gt;0,データ設定用!Q10,"")</f>
         <v/>
       </c>
-      <c r="G16" s="27"/>
-      <c r="H16" s="38" t="str">
+      <c r="G16" s="26"/>
+      <c r="H16" s="37" t="str">
         <f>IF(LEN(データ設定用!G10)&gt;0,CONCATENATE(データ設定用!G10,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I16" s="28" t="str">
+      <c r="I16" s="27" t="str">
         <f>IF(LEN(D16)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J16" s="25"/>
-      <c r="K16" s="20"/>
-    </row>
-    <row r="17" spans="1:11" ht="33.450000000000003" customHeight="1">
-      <c r="A17" s="21">
+      <c r="J16" s="24"/>
+      <c r="K16" s="19"/>
+    </row>
+    <row r="17" spans="1:11" ht="33.6" customHeight="1">
+      <c r="A17" s="20">
         <v>6</v>
       </c>
-      <c r="B17" s="26" t="str">
+      <c r="B17" s="25" t="str">
         <f>IF(LEN(納品書!C15)&gt;0,納品書!C15,"")</f>
         <v/>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="26" t="str">
         <f>IF(LEN(納品書!D15)&gt;0,納品書!D15,"")</f>
         <v/>
       </c>
-      <c r="D17" s="27" t="str">
+      <c r="D17" s="26" t="str">
         <f>IF(LEN(データ設定用!K11)&gt;0,データ設定用!K11,"")</f>
         <v/>
       </c>
-      <c r="E17" s="27" t="str">
+      <c r="E17" s="26" t="str">
         <f>IF(LEN(データ設定用!O11)&gt;0,データ設定用!O11,"")</f>
         <v/>
       </c>
-      <c r="F17" s="27" t="str">
+      <c r="F17" s="26" t="str">
         <f>IF(LEN(データ設定用!Q11)&gt;0,データ設定用!Q11,"")</f>
         <v/>
       </c>
-      <c r="G17" s="27"/>
-      <c r="H17" s="38" t="str">
+      <c r="G17" s="26"/>
+      <c r="H17" s="37" t="str">
         <f>IF(LEN(データ設定用!G11)&gt;0,CONCATENATE(データ設定用!G11,CHAR(10),データ設定用!$Z$3),"")</f>
         <v/>
       </c>
-      <c r="I17" s="28" t="str">
+      <c r="I17" s="27" t="str">
         <f>IF(LEN(D17)&gt;0,データ設定用!$R$3,"")</f>
         <v/>
       </c>
-      <c r="J17" s="25"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:11" ht="13.95" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="20"/>
-      <c r="K18" s="20"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="19"/>
+    </row>
+    <row r="18" spans="1:11" ht="14.1" customHeight="1">
+      <c r="A18" s="19"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
     </row>
     <row r="19" spans="1:11" ht="27" customHeight="1">
-      <c r="G19" s="87" t="s">
+      <c r="G19" s="86" t="s">
         <v>26</v>
       </c>
-      <c r="H19" s="87"/>
-      <c r="I19" s="30" t="s">
+      <c r="H19" s="86"/>
+      <c r="I19" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J19" s="20"/>
-      <c r="K19" s="20"/>
+      <c r="J19" s="19"/>
+      <c r="K19" s="19"/>
     </row>
     <row r="20" spans="1:11" ht="15" customHeight="1">
-      <c r="G20" s="31"/>
-      <c r="H20" s="32"/>
-      <c r="I20" s="30" t="s">
+      <c r="G20" s="30"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="29" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" customHeight="1">
-      <c r="G21" s="31"/>
-      <c r="H21" s="32"/>
-      <c r="I21" s="30" t="s">
+      <c r="G21" s="30"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="29" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1">
-      <c r="G22" s="31"/>
-      <c r="H22" s="32" t="s">
+      <c r="G22" s="30"/>
+      <c r="H22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I22" s="30">
+      <c r="I22" s="29">
         <f>納品書!I17</f>
         <v>0</v>
       </c>
@@ -2990,7 +2987,7 @@
     <col min="7" max="7" width="21.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="24" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.109375" bestFit="1" customWidth="1"/>
@@ -3000,15 +2997,15 @@
     <col min="17" max="17" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="17.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="18.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="15.109375" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="22.109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="14.44140625" bestFit="1" customWidth="1"/>
@@ -3037,22 +3034,22 @@
       <c r="H1" t="s">
         <v>94</v>
       </c>
-      <c r="I1" s="39" t="s">
+      <c r="I1" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="39" t="s">
+      <c r="J1" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="K1" s="39" t="s">
+      <c r="K1" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="L1" s="39" t="s">
+      <c r="L1" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="12" t="s">
+      <c r="N1" s="11" t="s">
         <v>119</v>
       </c>
       <c r="O1" t="s">
@@ -3106,23 +3103,23 @@
       <c r="AE1" t="s">
         <v>108</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AF1" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="AG1" s="33"/>
+      <c r="AG1" s="32"/>
       <c r="AI1" t="s">
         <v>112</v>
       </c>
       <c r="AJ1" t="s">
         <v>113</v>
       </c>
-      <c r="AK1" s="33" t="s">
+      <c r="AK1" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="AL1" s="33" t="s">
+      <c r="AL1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="AM1" s="46" t="s">
+      <c r="AM1" s="45" t="s">
         <v>136</v>
       </c>
     </row>
@@ -3148,22 +3145,22 @@
       <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="39" t="s">
+      <c r="I2" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>121</v>
       </c>
       <c r="O2" t="s">
@@ -3217,32 +3214,32 @@
       <c r="AE2" t="s">
         <v>58</v>
       </c>
-      <c r="AF2" s="12" t="s">
+      <c r="AF2" s="11" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:39">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="34"/>
-      <c r="R3" s="33"/>
-      <c r="S3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="Z3" s="33"/>
-      <c r="AA3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="33"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="33"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="32"/>
       <c r="AI3">
         <f>ROUNDDOWN(IF(Y3&lt;&gt;1,0,IF(Y3=1,V3*AA3,V3/(1+AA3)*AA3)),0)</f>
         <v>0</v>
@@ -3307,7 +3304,7 @@
       <c r="S4" t="s">
         <v>90</v>
       </c>
-      <c r="T4" s="33" t="s">
+      <c r="T4" s="32" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3327,7 +3324,7 @@
       <c r="F5" t="s">
         <v>61</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="32" t="s">
         <v>133</v>
       </c>
       <c r="H5" t="s">
@@ -3366,88 +3363,88 @@
       <c r="S5" t="s">
         <v>58</v>
       </c>
-      <c r="T5" s="33" t="s">
+      <c r="T5" s="32" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:39">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="37"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="S6" s="33"/>
+      <c r="E6" s="36"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="S6" s="32"/>
     </row>
     <row r="7" spans="1:39">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="S7" s="33"/>
+      <c r="E7" s="34"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="S7" s="32"/>
     </row>
     <row r="8" spans="1:39">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="37"/>
-      <c r="J8" s="37"/>
-      <c r="K8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="S8" s="33"/>
+      <c r="E8" s="34"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="S8" s="32"/>
     </row>
     <row r="9" spans="1:39">
-      <c r="A9" s="33" t="s">
+      <c r="A9" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="Z9" s="33"/>
+      <c r="E9" s="34"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="S9" s="32"/>
+      <c r="Z9" s="32"/>
     </row>
     <row r="10" spans="1:39">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="E10" s="35"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="33"/>
-      <c r="Q10" s="33"/>
-      <c r="S10" s="33"/>
+      <c r="E10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="32"/>
+      <c r="Q10" s="32"/>
+      <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:39">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="33"/>
-      <c r="Q11" s="33"/>
-      <c r="S11" s="33"/>
+      <c r="E11" s="34"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="S11" s="32"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
+++ b/01_kidsweb/home/kids2/report_tmp/slip_exclusive.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\クワガタ\02_不具合\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\solcom\Desktop\Git\KIDS\01_kidsweb\home\kids2\report_tmp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49065E98-58E7-4E82-8E09-67D309A69585}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8150FF6-3DFB-4E93-9FCF-94522978ACC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="141">
   <si>
     <t>弊社注文書No</t>
     <rPh sb="0" eb="2">
@@ -1119,6 +1119,12 @@
   <si>
     <t>stroneproductprice</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品書備考出力フラグ</t>
+  </si>
+  <si>
+    <t>bytprintslipnoteflg</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +1993,7 @@
   <dimension ref="C1:N23"/>
   <sheetViews>
     <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -2395,7 +2401,7 @@
     </row>
     <row r="17" spans="3:14" ht="13.35" customHeight="1">
       <c r="C17" s="63" t="str">
-        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,CONCATENATE(データ設定用!G6,"分　"),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"非課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
+        <f>CONCATENATE(IF(LEN(データ設定用!G6)&gt;0,IF(データ設定用!U6=1,CONCATENATE(データ設定用!G6,"分　"), ""),""),データ設定用!Z3,IF(データ設定用!Z3&lt;&gt;"不課税",CONCATENATE(データ設定用!AK1,データ設定用!AA3*100,データ設定用!AL1),""),データ設定用!AM1,データ設定用!AE3)</f>
         <v xml:space="preserve">(0%)
 </v>
       </c>
@@ -2972,9 +2978,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
   <cols>
@@ -3307,6 +3311,9 @@
       <c r="T4" s="32" t="s">
         <v>137</v>
       </c>
+      <c r="U4" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="5" spans="1:39">
       <c r="B5" t="s">
@@ -3365,6 +3372,9 @@
       </c>
       <c r="T5" s="32" t="s">
         <v>138</v>
+      </c>
+      <c r="U5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:39">
